--- a/Puente.xlsx
+++ b/Puente.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcolo\Documents\Alan\Puente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.colomer\Documents\GitHub\Puente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D569E1F-159C-4081-A2A0-5F5F2360453D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="8172" activeTab="1" xr2:uid="{AAE10906-A4F8-4F67-BC6B-235CC9249FD4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="8175" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
-    <sheet name="Secundariios" sheetId="2" r:id="rId2"/>
+    <sheet name="Secundarios" sheetId="2" r:id="rId2"/>
+    <sheet name="Cuadernas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,19 +26,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
   <si>
     <t>Puntos del arco del puente</t>
   </si>
+  <si>
+    <t>α</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +63,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +88,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -93,10 +108,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1529,6 +1554,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1536,7 +1562,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1586,6 +1611,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1626,7 +1652,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Secundariios!$A$4</c:f>
+              <c:f>Secundarios!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1661,7 +1687,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Secundariios!$B$3:$AZ$3</c:f>
+              <c:f>Secundarios!$B$3:$AZ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1823,7 +1849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Secundariios!$B$4:$AZ$4</c:f>
+              <c:f>Secundarios!$B$4:$AZ$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -1995,7 +2021,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Secundariios!$A$5</c:f>
+              <c:f>Secundarios!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2030,7 +2056,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Secundariios!$B$3:$AZ$3</c:f>
+              <c:f>Secundarios!$B$3:$AZ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2192,7 +2218,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Secundariios!$B$5:$AZ$5</c:f>
+              <c:f>Secundarios!$B$5:$AZ$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2364,7 +2390,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Secundariios!$A$6</c:f>
+              <c:f>Secundarios!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2399,7 +2425,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Secundariios!$B$3:$AZ$3</c:f>
+              <c:f>Secundarios!$B$3:$AZ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2561,7 +2587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Secundariios!$B$6:$AZ$6</c:f>
+              <c:f>Secundarios!$B$6:$AZ$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2640,7 +2666,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Secundariios!$A$7</c:f>
+              <c:f>Secundarios!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2675,7 +2701,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Secundariios!$B$3:$AZ$3</c:f>
+              <c:f>Secundarios!$B$3:$AZ$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2837,7 +2863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Secundariios!$B$7:$AZ$7</c:f>
+              <c:f>Secundarios!$B$7:$AZ$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3041,6 +3067,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3072,6 +3099,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3079,6 +3107,2619 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2,14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-18.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-11.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2,67</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-11.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3,72</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$8:$R$8</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$9:$R$9</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$10:$R$10</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$11:$R$11</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$12:$R$12</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$13:$R$13</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$14:$R$14</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$15:$R$15</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$16:$R$16</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$17:$R$17</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$18:$R$18</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$19:$R$19</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cuadernas!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Cuadernas!$D$1:$R$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cuadernas!$D$20:$R$20</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-0869-4B51-BADB-B6169DD45628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="508039016"/>
+        <c:axId val="508038688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="508039016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508038688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508038688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508039016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3155,6 +5796,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4200,6 +6881,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4265,6 +7449,41 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>728662</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4578,31 +7797,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32569CA-3380-405D-B11A-0B765972A9DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="52" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="44" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="52" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>-25</v>
       </c>
@@ -4763,7 +7982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -4972,630 +8191,630 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <f>-1*ROUND($A5*COSH(B$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="B5:K6" si="1">-1*ROUND($A5*COSH(B$3/$A5)-($A5-1),1)</f>
         <v>-18.8</v>
       </c>
       <c r="C5" s="2">
-        <f>-1*ROUND($A5*COSH(C$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-17.2</v>
       </c>
       <c r="D5" s="2">
-        <f>-1*ROUND($A5*COSH(D$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-15.7</v>
       </c>
       <c r="E5" s="2">
-        <f>-1*ROUND($A5*COSH(E$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-14.4</v>
       </c>
       <c r="F5" s="2">
-        <f>-1*ROUND($A5*COSH(F$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-13.1</v>
       </c>
       <c r="G5" s="2">
-        <f>-1*ROUND($A5*COSH(G$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-11.9</v>
       </c>
       <c r="H5" s="2">
-        <f>-1*ROUND($A5*COSH(H$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-10.7</v>
       </c>
       <c r="I5" s="2">
-        <f>-1*ROUND($A5*COSH(I$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="J5">
-        <f>-1*ROUND($A5*COSH(J$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-8.6999999999999993</v>
       </c>
       <c r="K5">
-        <f>-1*ROUND($A5*COSH(K$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-7.7</v>
       </c>
       <c r="L5">
-        <f>-1*ROUND($A5*COSH(L$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="L5:U6" si="2">-1*ROUND($A5*COSH(L$3/$A5)-($A5-1),1)</f>
         <v>-6.9</v>
       </c>
       <c r="M5">
-        <f>-1*ROUND($A5*COSH(M$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-6.1</v>
       </c>
       <c r="N5">
-        <f>-1*ROUND($A5*COSH(N$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-5.4</v>
       </c>
       <c r="O5">
-        <f>-1*ROUND($A5*COSH(O$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-4.7</v>
       </c>
       <c r="P5">
-        <f>-1*ROUND($A5*COSH(P$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="Q5">
-        <f>-1*ROUND($A5*COSH(Q$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-3.6</v>
       </c>
       <c r="R5">
-        <f>-1*ROUND($A5*COSH(R$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-3.1</v>
       </c>
       <c r="S5">
-        <f>-1*ROUND($A5*COSH(S$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-2.6</v>
       </c>
       <c r="T5">
-        <f>-1*ROUND($A5*COSH(T$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="U5">
-        <f>-1*ROUND($A5*COSH(U$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-1.9</v>
       </c>
       <c r="V5">
-        <f>-1*ROUND($A5*COSH(V$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="V5:AE6" si="3">-1*ROUND($A5*COSH(V$3/$A5)-($A5-1),1)</f>
         <v>-1.6</v>
       </c>
       <c r="W5">
-        <f>-1*ROUND($A5*COSH(W$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
       <c r="X5">
-        <f>-1*ROUND($A5*COSH(X$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.2</v>
       </c>
       <c r="Y5">
-        <f>-1*ROUND($A5*COSH(Y$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="Z5">
-        <f>-1*ROUND($A5*COSH(Z$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="AA5">
-        <f>-1*ROUND($A5*COSH(AA$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="AB5">
-        <f>-1*ROUND($A5*COSH(AB$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="AC5">
-        <f>-1*ROUND($A5*COSH(AC$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="AD5">
-        <f>-1*ROUND($A5*COSH(AD$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.2</v>
       </c>
       <c r="AE5">
-        <f>-1*ROUND($A5*COSH(AE$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
       <c r="AF5">
-        <f>-1*ROUND($A5*COSH(AF$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="AF5:AO6" si="4">-1*ROUND($A5*COSH(AF$3/$A5)-($A5-1),1)</f>
         <v>-1.6</v>
       </c>
       <c r="AG5">
-        <f>-1*ROUND($A5*COSH(AG$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-1.9</v>
       </c>
       <c r="AH5">
-        <f>-1*ROUND($A5*COSH(AH$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AI5">
-        <f>-1*ROUND($A5*COSH(AI$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-2.6</v>
       </c>
       <c r="AJ5">
-        <f>-1*ROUND($A5*COSH(AJ$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-3.1</v>
       </c>
       <c r="AK5">
-        <f>-1*ROUND($A5*COSH(AK$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-3.6</v>
       </c>
       <c r="AL5">
-        <f>-1*ROUND($A5*COSH(AL$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="AM5">
-        <f>-1*ROUND($A5*COSH(AM$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-4.7</v>
       </c>
       <c r="AN5">
-        <f>-1*ROUND($A5*COSH(AN$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-5.4</v>
       </c>
       <c r="AO5">
-        <f>-1*ROUND($A5*COSH(AO$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-6.1</v>
       </c>
       <c r="AP5">
-        <f>-1*ROUND($A5*COSH(AP$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="AP5:AZ6" si="5">-1*ROUND($A5*COSH(AP$3/$A5)-($A5-1),1)</f>
         <v>-6.9</v>
       </c>
       <c r="AQ5">
-        <f>-1*ROUND($A5*COSH(AQ$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-7.7</v>
       </c>
       <c r="AR5">
-        <f>-1*ROUND($A5*COSH(AR$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-8.6999999999999993</v>
       </c>
       <c r="AS5" s="2">
-        <f>-1*ROUND($A5*COSH(AS$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="AT5" s="2">
-        <f>-1*ROUND($A5*COSH(AT$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-10.7</v>
       </c>
       <c r="AU5" s="2">
-        <f>-1*ROUND($A5*COSH(AU$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-11.9</v>
       </c>
       <c r="AV5" s="2">
-        <f>-1*ROUND($A5*COSH(AV$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-13.1</v>
       </c>
       <c r="AW5" s="2">
-        <f>-1*ROUND($A5*COSH(AW$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-14.4</v>
       </c>
       <c r="AX5" s="2">
-        <f>-1*ROUND($A5*COSH(AX$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-15.7</v>
       </c>
       <c r="AY5" s="2">
-        <f>-1*ROUND($A5*COSH(AY$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-17.2</v>
       </c>
       <c r="AZ5" s="2">
-        <f>-1*ROUND($A5*COSH(AZ$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
-        <f>-1*ROUND($A6*COSH(B$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-18.8</v>
       </c>
       <c r="C6">
-        <f>-1*ROUND($A6*COSH(C$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-17.2</v>
       </c>
       <c r="D6">
-        <f>-1*ROUND($A6*COSH(D$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-15.7</v>
       </c>
       <c r="E6">
-        <f>-1*ROUND($A6*COSH(E$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-14.4</v>
       </c>
       <c r="F6">
-        <f>-1*ROUND($A6*COSH(F$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-13.1</v>
       </c>
       <c r="G6">
-        <f>-1*ROUND($A6*COSH(G$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-11.9</v>
       </c>
       <c r="H6">
-        <f>-1*ROUND($A6*COSH(H$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-10.7</v>
       </c>
       <c r="I6">
-        <f>-1*ROUND($A6*COSH(I$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="J6">
-        <f>-1*ROUND($A6*COSH(J$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-8.6999999999999993</v>
       </c>
       <c r="K6">
-        <f>-1*ROUND($A6*COSH(K$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-7.7</v>
       </c>
       <c r="L6">
-        <f>-1*ROUND($A6*COSH(L$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-6.9</v>
       </c>
       <c r="M6">
-        <f>-1*ROUND($A6*COSH(M$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-6.1</v>
       </c>
       <c r="N6">
-        <f>-1*ROUND($A6*COSH(N$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-5.4</v>
       </c>
       <c r="O6">
-        <f>-1*ROUND($A6*COSH(O$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-4.7</v>
       </c>
       <c r="P6">
-        <f>-1*ROUND($A6*COSH(P$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="Q6">
-        <f>-1*ROUND($A6*COSH(Q$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-3.6</v>
       </c>
       <c r="R6">
-        <f>-1*ROUND($A6*COSH(R$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-3.1</v>
       </c>
       <c r="S6">
-        <f>-1*ROUND($A6*COSH(S$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-2.6</v>
       </c>
       <c r="T6">
-        <f>-1*ROUND($A6*COSH(T$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="U6">
-        <f>-1*ROUND($A6*COSH(U$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-1.9</v>
       </c>
       <c r="V6">
-        <f>-1*ROUND($A6*COSH(V$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.6</v>
       </c>
       <c r="W6">
-        <f>-1*ROUND($A6*COSH(W$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
       <c r="X6">
-        <f>-1*ROUND($A6*COSH(X$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.2</v>
       </c>
       <c r="Y6">
-        <f>-1*ROUND($A6*COSH(Y$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="Z6">
-        <f>-1*ROUND($A6*COSH(Z$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="AA6">
-        <f>-1*ROUND($A6*COSH(AA$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="AB6">
-        <f>-1*ROUND($A6*COSH(AB$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="AC6">
-        <f>-1*ROUND($A6*COSH(AC$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="AD6">
-        <f>-1*ROUND($A6*COSH(AD$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.2</v>
       </c>
       <c r="AE6">
-        <f>-1*ROUND($A6*COSH(AE$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
       <c r="AF6">
-        <f>-1*ROUND($A6*COSH(AF$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-1.6</v>
       </c>
       <c r="AG6">
-        <f>-1*ROUND($A6*COSH(AG$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-1.9</v>
       </c>
       <c r="AH6">
-        <f>-1*ROUND($A6*COSH(AH$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AI6">
-        <f>-1*ROUND($A6*COSH(AI$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-2.6</v>
       </c>
       <c r="AJ6">
-        <f>-1*ROUND($A6*COSH(AJ$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-3.1</v>
       </c>
       <c r="AK6">
-        <f>-1*ROUND($A6*COSH(AK$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-3.6</v>
       </c>
       <c r="AL6">
-        <f>-1*ROUND($A6*COSH(AL$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="AM6">
-        <f>-1*ROUND($A6*COSH(AM$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-4.7</v>
       </c>
       <c r="AN6">
-        <f>-1*ROUND($A6*COSH(AN$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-5.4</v>
       </c>
       <c r="AO6">
-        <f>-1*ROUND($A6*COSH(AO$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="4"/>
         <v>-6.1</v>
       </c>
       <c r="AP6">
-        <f>-1*ROUND($A6*COSH(AP$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-6.9</v>
       </c>
       <c r="AQ6">
-        <f>-1*ROUND($A6*COSH(AQ$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-7.7</v>
       </c>
       <c r="AR6">
-        <f>-1*ROUND($A6*COSH(AR$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-8.6999999999999993</v>
       </c>
       <c r="AS6">
-        <f>-1*ROUND($A6*COSH(AS$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="AT6">
-        <f>-1*ROUND($A6*COSH(AT$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-10.7</v>
       </c>
       <c r="AU6">
-        <f>-1*ROUND($A6*COSH(AU$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-11.9</v>
       </c>
       <c r="AV6">
-        <f>-1*ROUND($A6*COSH(AV$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-13.1</v>
       </c>
       <c r="AW6">
-        <f>-1*ROUND($A6*COSH(AW$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-14.4</v>
       </c>
       <c r="AX6">
-        <f>-1*ROUND($A6*COSH(AX$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-15.7</v>
       </c>
       <c r="AY6">
-        <f>-1*ROUND($A6*COSH(AY$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-17.2</v>
       </c>
       <c r="AZ6">
-        <f>-1*ROUND($A6*COSH(AZ$3/$A6)-($A6-1),1)</f>
+        <f t="shared" si="5"/>
         <v>-18.8</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:AZ7" si="1">-1*ROUND($A7*COSH(B$3/$A7),1)</f>
+        <f t="shared" ref="B7:AZ7" si="6">-1*ROUND($A7*COSH(B$3/$A7),1)</f>
         <v>-37.799999999999997</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-36.4</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-35.200000000000003</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-33.9</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-32.799999999999997</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-31.7</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-30.7</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-29.8</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-28.9</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-28.1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-27.3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-26.6</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-26</v>
       </c>
       <c r="O7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-25.4</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-24.8</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-24.3</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-23.9</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-23.5</v>
       </c>
       <c r="T7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-23.1</v>
       </c>
       <c r="U7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.8</v>
       </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.6</v>
       </c>
       <c r="W7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.4</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.2</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.1</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.1</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.2</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.4</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.6</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-22.8</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-23.1</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-23.5</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-23.9</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-24.3</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-24.8</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-25.4</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-26</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-26.6</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-27.3</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-28.1</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-28.9</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-29.8</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-30.7</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-31.7</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-32.799999999999997</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-33.9</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-35.200000000000003</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-36.4</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>-37.799999999999997</v>
       </c>
     </row>
@@ -5606,26 +8825,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A0E3E6-EAD4-43D2-A6D8-E9C7A246E457}">
-  <dimension ref="A3:BC7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="45" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="45" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="52" width="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>HLOOKUP(A2,Secundarios!B3:AZ4,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>-25</v>
       </c>
@@ -5786,7 +9011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -5995,216 +9220,216 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <f>-1*ROUND($A5*COSH(B$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="B5:AG5" si="1">-1*ROUND($A5*COSH(B$3/$A5)-($A5-1),1)</f>
         <v>-18.8</v>
       </c>
       <c r="C5" s="2">
-        <f>-1*ROUND($A5*COSH(C$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-17.2</v>
       </c>
       <c r="D5" s="2">
-        <f>-1*ROUND($A5*COSH(D$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-15.7</v>
       </c>
       <c r="E5" s="2">
-        <f>-1*ROUND($A5*COSH(E$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-14.4</v>
       </c>
       <c r="F5" s="2">
-        <f>-1*ROUND($A5*COSH(F$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-13.1</v>
       </c>
       <c r="G5" s="2">
-        <f>-1*ROUND($A5*COSH(G$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-11.9</v>
       </c>
       <c r="H5" s="2">
-        <f>-1*ROUND($A5*COSH(H$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-10.7</v>
       </c>
       <c r="I5" s="2">
-        <f>-1*ROUND($A5*COSH(I$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="J5">
-        <f>-1*ROUND($A5*COSH(J$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-8.6999999999999993</v>
       </c>
       <c r="K5">
-        <f>-1*ROUND($A5*COSH(K$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-7.7</v>
       </c>
       <c r="L5">
-        <f>-1*ROUND($A5*COSH(L$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-6.9</v>
       </c>
       <c r="M5">
-        <f>-1*ROUND($A5*COSH(M$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-6.1</v>
       </c>
       <c r="N5">
-        <f>-1*ROUND($A5*COSH(N$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-5.4</v>
       </c>
       <c r="O5">
-        <f>-1*ROUND($A5*COSH(O$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-4.7</v>
       </c>
       <c r="P5">
-        <f>-1*ROUND($A5*COSH(P$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="Q5">
-        <f>-1*ROUND($A5*COSH(Q$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-3.6</v>
       </c>
       <c r="R5">
-        <f>-1*ROUND($A5*COSH(R$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-3.1</v>
       </c>
       <c r="S5">
-        <f>-1*ROUND($A5*COSH(S$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-2.6</v>
       </c>
       <c r="T5">
-        <f>-1*ROUND($A5*COSH(T$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="U5">
-        <f>-1*ROUND($A5*COSH(U$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.9</v>
       </c>
       <c r="V5">
-        <f>-1*ROUND($A5*COSH(V$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.6</v>
       </c>
       <c r="W5">
-        <f>-1*ROUND($A5*COSH(W$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.4</v>
       </c>
       <c r="X5">
-        <f>-1*ROUND($A5*COSH(X$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.2</v>
       </c>
       <c r="Y5">
-        <f>-1*ROUND($A5*COSH(Y$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="Z5">
-        <f>-1*ROUND($A5*COSH(Z$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="AA5">
-        <f>-1*ROUND($A5*COSH(AA$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="AB5">
-        <f>-1*ROUND($A5*COSH(AB$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="AC5">
-        <f>-1*ROUND($A5*COSH(AC$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="AD5">
-        <f>-1*ROUND($A5*COSH(AD$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.2</v>
       </c>
       <c r="AE5">
-        <f>-1*ROUND($A5*COSH(AE$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.4</v>
       </c>
       <c r="AF5">
-        <f>-1*ROUND($A5*COSH(AF$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.6</v>
       </c>
       <c r="AG5">
-        <f>-1*ROUND($A5*COSH(AG$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="1"/>
         <v>-1.9</v>
       </c>
       <c r="AH5">
-        <f>-1*ROUND($A5*COSH(AH$3/$A5)-($A5-1),1)</f>
+        <f t="shared" ref="AH5:AZ5" si="2">-1*ROUND($A5*COSH(AH$3/$A5)-($A5-1),1)</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AI5">
-        <f>-1*ROUND($A5*COSH(AI$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-2.6</v>
       </c>
       <c r="AJ5">
-        <f>-1*ROUND($A5*COSH(AJ$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-3.1</v>
       </c>
       <c r="AK5">
-        <f>-1*ROUND($A5*COSH(AK$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-3.6</v>
       </c>
       <c r="AL5">
-        <f>-1*ROUND($A5*COSH(AL$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-4.0999999999999996</v>
       </c>
       <c r="AM5">
-        <f>-1*ROUND($A5*COSH(AM$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-4.7</v>
       </c>
       <c r="AN5">
-        <f>-1*ROUND($A5*COSH(AN$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-5.4</v>
       </c>
       <c r="AO5">
-        <f>-1*ROUND($A5*COSH(AO$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-6.1</v>
       </c>
       <c r="AP5">
-        <f>-1*ROUND($A5*COSH(AP$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-6.9</v>
       </c>
       <c r="AQ5">
-        <f>-1*ROUND($A5*COSH(AQ$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-7.7</v>
       </c>
       <c r="AR5">
-        <f>-1*ROUND($A5*COSH(AR$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-8.6999999999999993</v>
       </c>
       <c r="AS5" s="2">
-        <f>-1*ROUND($A5*COSH(AS$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-9.6999999999999993</v>
       </c>
       <c r="AT5" s="2">
-        <f>-1*ROUND($A5*COSH(AT$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-10.7</v>
       </c>
       <c r="AU5" s="2">
-        <f>-1*ROUND($A5*COSH(AU$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-11.9</v>
       </c>
       <c r="AV5" s="2">
-        <f>-1*ROUND($A5*COSH(AV$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-13.1</v>
       </c>
       <c r="AW5" s="2">
-        <f>-1*ROUND($A5*COSH(AW$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-14.4</v>
       </c>
       <c r="AX5" s="2">
-        <f>-1*ROUND($A5*COSH(AX$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-15.7</v>
       </c>
       <c r="AY5" s="2">
-        <f>-1*ROUND($A5*COSH(AY$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-17.2</v>
       </c>
       <c r="AZ5" s="2">
-        <f>-1*ROUND($A5*COSH(AZ$3/$A5)-($A5-1),1)</f>
+        <f t="shared" si="2"/>
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -6213,75 +9438,75 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:AA7" si="1">-1*ROUND($A6*COSH((C$3+25)/$A6)-($A6-1),1)</f>
+        <f t="shared" ref="C6:K6" si="3">-1*ROUND($A6*COSH((C$3+25)/$A6)-($A6-1),1)</f>
         <v>-1.1000000000000001</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.7</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.9</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.7</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.8</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6.1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.6</v>
       </c>
       <c r="AQ6">
-        <f t="shared" ref="AA6:AY7" si="2">-1*ROUND($A6*COSH((AQ$3-25)/$A6)-($A6-1),1)</f>
+        <f t="shared" ref="AQ6:AY6" si="4">-1*ROUND($A6*COSH((AQ$3-25)/$A6)-($A6-1),1)</f>
         <v>-7.6</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.1</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.8</v>
       </c>
       <c r="AT6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.7</v>
       </c>
       <c r="AU6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.9</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.7</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="AZ6">
@@ -6289,7 +9514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -6298,39 +9523,39 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:K7" si="3">-1*ROUND($A7*COSH((C$3+25)/$A7)-($A7),1)</f>
+        <f t="shared" ref="C7:K7" si="5">-1*ROUND($A7*COSH((C$3+25)/$A7)-($A7),1)</f>
         <v>-0.1</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.7</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.2</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.9</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.7</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.8</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.0999999999999996</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.6</v>
       </c>
       <c r="AQ7">
@@ -6338,39 +9563,39 @@
         <v>-6.6</v>
       </c>
       <c r="AR7">
-        <f t="shared" ref="AR7:AZ7" si="4">-1*ROUND($A7*COSH((AR$3-25)/$A7)-($A7),1)</f>
+        <f t="shared" ref="AR7:AZ7" si="6">-1*ROUND($A7*COSH((AR$3-25)/$A7)-($A7),1)</f>
         <v>-5.0999999999999996</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-3.8</v>
       </c>
       <c r="AT7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.7</v>
       </c>
       <c r="AU7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.9</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.2</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.7</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.3</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.1</v>
       </c>
       <c r="AZ7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6378,4 +9603,1358 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>-7</v>
+      </c>
+      <c r="E1" s="4">
+        <v>-6</v>
+      </c>
+      <c r="F1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>-4</v>
+      </c>
+      <c r="H1" s="4">
+        <v>-3</v>
+      </c>
+      <c r="I1" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J1" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4">
+        <v>3</v>
+      </c>
+      <c r="O1" s="4">
+        <v>4</v>
+      </c>
+      <c r="P1" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>6</v>
+      </c>
+      <c r="R1" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <f>HLOOKUP(A2,Secundarios!$B$3:$AZ$5,3,FALSE)</f>
+        <v>-18.8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.14</v>
+      </c>
+      <c r="D2">
+        <f>-1*ROUND($C2*COSH(D$1/(1.1*$C2))-($C2),1)</f>
+        <v>-18.8</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:R17" si="0">-1*ROUND($C2*COSH(E$1/(1.1*$C2))-($C2),1)</f>
+        <v>-11.6</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>-6.9</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>-3.9</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>-3.9</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>-6.9</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>-11.6</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>-18.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f>HLOOKUP(A3,Secundarios!$B$3:$AZ$5,3,FALSE)</f>
+        <v>-11.9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.67</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:R20" si="1">-1*ROUND($C3*COSH(D$1/(1.1*$C3))-($C3),1)</f>
+        <v>-11.9</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>-7.8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-2.9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>-2.9</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>-7.8</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="0"/>
+        <v>-11.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <f>HLOOKUP(A4,Secundarios!$B$3:$AZ$5,3,FALSE)</f>
+        <v>-6.9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-6.9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-4.8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-3.1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-1.9</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>-1.9</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>-3.1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-4.8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>HLOOKUP(A5,Secundarios!$B$3:$AZ$5,3,FALSE)</f>
+        <v>-3.6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-3.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-2.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-1.8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>-1.8</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>-2.6</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>HLOOKUP(A6,Secundarios!$B$3:$AZ$5,3,FALSE)</f>
+        <v>-1.6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>HLOOKUP(A7,Secundarios!$B$3:$AZ$5,3,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-2.7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-1.9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-1.3</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>-1.9</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-1.7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>-1.7</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-2.1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-1.9</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-1.4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>-1.4</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-1.7</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-1.3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>-1.3</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>-0.3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-1.4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-1.3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>-0.7</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-1.2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>-0.4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>-0.9</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-0.7</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>-0.1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>-0.7</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Puente.xlsx
+++ b/Puente.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="8175" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="8175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -8828,7 +8828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -9609,7 +9609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/Puente.xlsx
+++ b/Puente.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.colomer\Documents\GitHub\Puente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcolo\Documents\GitHub\Puente\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2EA365-17A8-4C07-8B30-403738D670AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="8175" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="8172" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="Secundarios" sheetId="2" r:id="rId2"/>
     <sheet name="Cuadernas" sheetId="3" r:id="rId3"/>
+    <sheet name="Principal-B" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,7 +72,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +96,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -108,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -122,6 +136,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1554,7 +1570,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1562,6 +1577,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1611,7 +1627,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3067,7 +3082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3099,7 +3113,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3107,6 +3120,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3156,7 +3170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5688,7 +5701,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5720,6 +5732,2030 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Principal-B'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$3:$BJ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$4:$BJ$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-13.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D19-4C86-9DCD-BAAE79975B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Principal-B'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$3:$BJ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$5:$BJ$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-11.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-15.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-18.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D19-4C86-9DCD-BAAE79975B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Principal-B'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$3:$BJ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$6:$BJ$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D19-4C86-9DCD-BAAE79975B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Principal-B'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$3:$BJ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$7:$BJ$7</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D19-4C86-9DCD-BAAE79975B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Principal-B'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$3:$BJ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Principal-B'!$B$8:$BJ$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4D19-4C86-9DCD-BAAE79975B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="523554392"/>
+        <c:axId val="523554720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="523554392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523554720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523554720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523554392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5836,6 +7872,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7384,6 +9460,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7483,7 +10062,54 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516678</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>169758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB510B42-F70E-4BF8-BDBC-6C170C92629F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7797,31 +10423,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:BC7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="44" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="52" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="52" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>-25</v>
       </c>
@@ -7982,7 +10611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
@@ -8191,7 +10820,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
@@ -8400,7 +11029,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -8609,7 +11238,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>22</v>
       </c>
@@ -8825,32 +11454,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A2:BC7"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="45" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="45" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="46" max="52" width="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B2">
         <f>HLOOKUP(A2,Secundarios!B3:AZ4,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>-25</v>
       </c>
@@ -9011,7 +11643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
@@ -9220,7 +11852,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
@@ -9429,7 +12061,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -9514,7 +12146,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9606,26 +12238,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
@@ -9675,7 +12310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>25</v>
       </c>
@@ -9747,7 +12382,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -9819,7 +12454,7 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -9891,7 +12526,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9963,7 +12598,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10035,7 +12670,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -10107,7 +12742,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>8</v>
       </c>
@@ -10172,7 +12807,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>9</v>
       </c>
@@ -10237,7 +12872,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>10</v>
       </c>
@@ -10302,7 +12937,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>11</v>
       </c>
@@ -10367,7 +13002,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>12</v>
       </c>
@@ -10432,7 +13067,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>13</v>
       </c>
@@ -10497,7 +13132,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>14</v>
       </c>
@@ -10562,7 +13197,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>15</v>
       </c>
@@ -10627,7 +13262,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>16</v>
       </c>
@@ -10692,7 +13327,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="17" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>17</v>
       </c>
@@ -10757,7 +13392,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="18" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>18</v>
       </c>
@@ -10822,7 +13457,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>19</v>
       </c>
@@ -10887,7 +13522,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>20</v>
       </c>
@@ -10957,4 +13592,1384 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE27B58-8CEF-407E-9B49-36E2A01D8538}">
+  <dimension ref="A3:BJ8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="44" width="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="57" width="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="62" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <v>-30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-29</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-27</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-26</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-25</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-24</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-23</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-22</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-20</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-19</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-18</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-17</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-15</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-14</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-13</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-12</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-11</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-9</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-8</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-7</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-6</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-5</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>7</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>8</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>9</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>11</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>13</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>14</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>17</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>18</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>19</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>20</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>21</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>22</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>23</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>24</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>25</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>27</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>28</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>29</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:AE4" si="0">-1*ROUND($A4*COSH(B$3/(1.1*$A4))-($A4+13.42),1)</f>
+        <v>-16</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-13.7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-11.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-9.4</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-5.6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-3.9</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+      <c r="AF4">
+        <f>-1*ROUND($A4*COSH(AF$3/(1.1*$A4))-($A4+13.42),1)</f>
+        <v>13.4</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:BJ4" si="1">-1*ROUND($A4*COSH(AG$3/(1.1*$A4))-($A4+13.42),1)</f>
+        <v>13.4</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="1"/>
+        <v>13.3</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="1"/>
+        <v>12.1</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="1"/>
+        <v>11.3</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="1"/>
+        <v>7.2</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="1"/>
+        <v>6.3</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="1"/>
+        <v>-0.8</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="1"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="1"/>
+        <v>-3.9</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="1"/>
+        <v>-5.6</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" si="1"/>
+        <v>-7.5</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" si="1"/>
+        <v>-9.4</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" si="1"/>
+        <v>-11.5</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" si="1"/>
+        <v>-13.7</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:AE5" si="2">-1*ROUND($A5*COSH(B$3/$A5)-($A5+13),1)</f>
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>-15.9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-13.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>-11.3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>-7.3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-5.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>-3.8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>-0.7</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>5.4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>7.3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>8.1</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>10.7</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>11.6</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="2"/>
+        <v>12.3</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>12.6</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="2"/>
+        <v>12.7</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>12.9</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AF5">
+        <f>-1*ROUND($A5*COSH(AF$3/$A5)-($A5+13),1)</f>
+        <v>13</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:BJ5" si="3">-1*ROUND($A5*COSH(AG$3/$A5)-($A5+13),1)</f>
+        <v>13</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="3"/>
+        <v>12.9</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="3"/>
+        <v>12.7</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="3"/>
+        <v>12.6</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="3"/>
+        <v>12.3</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="3"/>
+        <v>11.6</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="3"/>
+        <v>11.2</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="3"/>
+        <v>10.7</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="3"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="3"/>
+        <v>7.3</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="3"/>
+        <v>6.4</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="3"/>
+        <v>-0.7</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="3"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="3"/>
+        <v>-3.8</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="3"/>
+        <v>-5.5</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="3"/>
+        <v>-7.3</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" si="3"/>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" si="3"/>
+        <v>-11.3</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" si="3"/>
+        <v>-13.5</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" si="3"/>
+        <v>-15.9</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" si="3"/>
+        <v>-18.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G5:V6" si="4">-1*ROUND($A6*COSH(G$3/$A6)-($A6-1),1)</f>
+        <v>-18.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>-17.2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-15.7</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>-14.4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>-13.1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>-11.9</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>-10.7</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>-7.7</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>-6.9</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>-6.1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>-5.4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>-4.7</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>-3.6</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W5:AL6" si="5">-1*ROUND($A6*COSH(W$3/$A6)-($A6-1),1)</f>
+        <v>-3.1</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>-2.6</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>-1.9</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>-1.6</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>-1.4</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>-1.2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>-1.2</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>-1.4</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="5"/>
+        <v>-1.6</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" si="5"/>
+        <v>-1.9</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM5:BB6" si="6">-1*ROUND($A6*COSH(AM$3/$A6)-($A6-1),1)</f>
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="6"/>
+        <v>-2.6</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="6"/>
+        <v>-3.1</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="6"/>
+        <v>-3.6</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="6"/>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="6"/>
+        <v>-4.7</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="6"/>
+        <v>-5.4</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="6"/>
+        <v>-6.1</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="6"/>
+        <v>-6.9</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="6"/>
+        <v>-7.7</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="6"/>
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="6"/>
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="6"/>
+        <v>-10.7</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="6"/>
+        <v>-11.9</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="6"/>
+        <v>-13.1</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="6"/>
+        <v>-14.4</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ref="BC5:BM6" si="7">-1*ROUND($A6*COSH(BC$3/$A6)-($A6-1),1)</f>
+        <v>-15.7</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="7"/>
+        <v>-17.2</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="7"/>
+        <v>-18.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:BE7" si="8">-1*ROUND($A7*COSH(G$3/$A7),1)</f>
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="8"/>
+        <v>-36.4</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="8"/>
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
+        <v>-33.9</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>-31.7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>-30.7</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="8"/>
+        <v>-29.8</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>-28.9</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>-28.1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="8"/>
+        <v>-27.3</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>-26.6</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>-26</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="8"/>
+        <v>-25.4</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>-24.8</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="8"/>
+        <v>-24.3</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="8"/>
+        <v>-23.9</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="8"/>
+        <v>-23.5</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="8"/>
+        <v>-23.1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>-22.8</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="8"/>
+        <v>-22.6</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>-22.4</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="8"/>
+        <v>-22.2</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="8"/>
+        <v>-22.1</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="8"/>
+        <v>-22</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="8"/>
+        <v>-22</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="8"/>
+        <v>-22</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="8"/>
+        <v>-22.1</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="8"/>
+        <v>-22.2</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="8"/>
+        <v>-22.4</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="8"/>
+        <v>-22.6</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="8"/>
+        <v>-22.8</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="8"/>
+        <v>-23.1</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="8"/>
+        <v>-23.5</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="8"/>
+        <v>-23.9</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="8"/>
+        <v>-24.3</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="8"/>
+        <v>-24.8</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="8"/>
+        <v>-25.4</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="8"/>
+        <v>-26</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="8"/>
+        <v>-26.6</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="8"/>
+        <v>-27.3</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="8"/>
+        <v>-28.1</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="8"/>
+        <v>-28.9</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="8"/>
+        <v>-29.8</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="8"/>
+        <v>-30.7</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="8"/>
+        <v>-31.7</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="8"/>
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="8"/>
+        <v>-33.9</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="8"/>
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="8"/>
+        <v>-36.4</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="8"/>
+        <v>-37.799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>500</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:AE8" si="9">-1*ROUND($A8*COSH(B$3/$A8)-($A8+1),1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <f>-1*ROUND($A8*COSH(AF$3/$A8)-($A8+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" ref="AG8:BJ8" si="10">-1*ROUND($A8*COSH(AG$3/$A8)-($A8+1),1)</f>
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="BI8">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="BJ8">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Puente.xlsx
+++ b/Puente.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dcolo\Documents\GitHub\Puente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david.colomer\Documents\GitHub\Puente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2EA365-17A8-4C07-8B30-403738D670AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="8172" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="8175" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
     <sheet name="Secundarios" sheetId="2" r:id="rId2"/>
     <sheet name="Cuadernas" sheetId="3" r:id="rId3"/>
     <sheet name="Principal-B" sheetId="4" r:id="rId4"/>
+    <sheet name="Base" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,7 +72,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,11 +108,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -122,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -138,6 +153,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1570,6 +1594,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1577,7 +1602,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3113,6 +3137,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3120,7 +3145,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5782,6 +5806,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6255,7 +6280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6483,187 +6508,187 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>-19.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.9</c:v>
+                  <c:v>-17.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-13.5</c:v>
+                  <c:v>-16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11.3</c:v>
+                  <c:v>-15.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-13.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>-9.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.2000000000000002</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.7</c:v>
+                  <c:v>-8.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.6</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>12.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.9</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.7</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.6</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.2</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.7</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.199999999999999</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.5</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>-1.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.1</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.3</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.4</c:v>
+                  <c:v>-3.6</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4</c:v>
+                  <c:v>-4.3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.2</c:v>
+                  <c:v>-5.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2</c:v>
+                  <c:v>-6.6</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.7</c:v>
+                  <c:v>-7.4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.7</c:v>
+                  <c:v>-8.4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>-9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-3.8</c:v>
+                  <c:v>-10.3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-5.5</c:v>
+                  <c:v>-11.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-7.3</c:v>
+                  <c:v>-12.6</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-9.3000000000000007</c:v>
+                  <c:v>-13.8</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-11.3</c:v>
+                  <c:v>-15.1</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-13.5</c:v>
+                  <c:v>-16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-15.9</c:v>
+                  <c:v>-17.8</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-18.399999999999999</c:v>
+                  <c:v>-19.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7168,7 +7193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7396,34 +7421,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.6</c:v>
@@ -7432,7 +7457,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.7</c:v>
@@ -7441,7 +7466,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.8</c:v>
@@ -7450,7 +7475,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.9</c:v>
@@ -7465,7 +7490,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1</c:v>
@@ -7507,7 +7532,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.9</c:v>
@@ -7522,7 +7547,7 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.9</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.8</c:v>
@@ -7531,7 +7556,7 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.7</c:v>
@@ -7540,7 +7565,7 @@
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.6</c:v>
@@ -7549,34 +7574,34 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7718,6 +7743,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7749,6 +7775,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7756,7 +7783,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10090,14 +10116,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>516678</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>169758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -10122,6 +10148,126 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148167</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1830917" y="4381500"/>
+          <a:ext cx="1344083" cy="2243667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>110066</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15434733" y="4353983"/>
+          <a:ext cx="1344083" cy="2243667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10423,7 +10569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -10433,24 +10579,24 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="52" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="44" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="52" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>-25</v>
       </c>
@@ -10611,7 +10757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -10820,7 +10966,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -11029,7 +11175,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -11238,7 +11384,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
@@ -11454,7 +11600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11464,25 +11610,25 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="45" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="45" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="46" max="52" width="6" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>HLOOKUP(A2,Secundarios!B3:AZ4,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>-25</v>
       </c>
@@ -11643,7 +11789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18</v>
       </c>
@@ -11852,7 +11998,7 @@
         <v>-16.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20</v>
       </c>
@@ -12061,7 +12207,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -12146,7 +12292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -12238,7 +12384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -12248,19 +12394,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
@@ -12310,7 +12456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -12382,7 +12528,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
@@ -12454,7 +12600,7 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15</v>
       </c>
@@ -12526,7 +12672,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -12598,7 +12744,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12670,7 +12816,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -12742,7 +12888,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>8</v>
       </c>
@@ -12807,7 +12953,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>9</v>
       </c>
@@ -12872,7 +13018,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>10</v>
       </c>
@@ -12937,7 +13083,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>11</v>
       </c>
@@ -13002,7 +13148,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>12</v>
       </c>
@@ -13067,7 +13213,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>13</v>
       </c>
@@ -13132,7 +13278,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>14</v>
       </c>
@@ -13197,7 +13343,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>15</v>
       </c>
@@ -13262,7 +13408,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>16</v>
       </c>
@@ -13327,7 +13473,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="17" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>17</v>
       </c>
@@ -13392,7 +13538,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="18" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>18</v>
       </c>
@@ -13457,7 +13603,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>19</v>
       </c>
@@ -13522,7 +13668,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>20</v>
       </c>
@@ -13595,30 +13741,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE27B58-8CEF-407E-9B49-36E2A01D8538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="44" width="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="46" max="57" width="6" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="59" max="62" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>-30</v>
       </c>
@@ -13803,7 +13949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>16</v>
       </c>
@@ -14052,261 +14198,261 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:AE5" si="2">-1*ROUND($A5*COSH(B$3/$A5)-($A5+13),1)</f>
-        <v>-18.399999999999999</v>
+        <f t="shared" ref="B5:AE5" si="2">-1*ROUND($A5*COSH(B$3/$A5)-($A5+1),1)</f>
+        <v>-19.3</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
-        <v>-15.9</v>
+        <v>-17.8</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>-13.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>-11.3</v>
+        <v>-15.1</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>-9.3000000000000007</v>
+        <v>-13.8</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>-7.3</v>
+        <v>-12.6</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>-5.5</v>
+        <v>-11.4</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>-3.8</v>
+        <v>-10.3</v>
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>-2.2000000000000002</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>-0.7</v>
+        <v>-8.4</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>0.7</v>
+        <v>-7.4</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>-6.6</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>3.2</v>
+        <v>-5.8</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>4.4000000000000004</v>
+        <v>-5</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>5.4</v>
+        <v>-4.3</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>6.4</v>
+        <v>-3.6</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>7.3</v>
+        <v>-3</v>
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
-        <v>8.1</v>
+        <v>-2.5</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>-1.9</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>-1.5</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>10.199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>10.7</v>
+        <v>-0.6</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>11.2</v>
+        <v>-0.3</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="AA5">
         <f t="shared" si="2"/>
-        <v>12.3</v>
+        <v>0.5</v>
       </c>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>12.6</v>
+        <v>0.7</v>
       </c>
       <c r="AC5">
         <f t="shared" si="2"/>
-        <v>12.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD5">
         <f t="shared" si="2"/>
-        <v>12.9</v>
+        <v>0.9</v>
       </c>
       <c r="AE5">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <f>-1*ROUND($A5*COSH(AF$3/$A5)-($A5+13),1)</f>
-        <v>13</v>
+        <f>-1*ROUND($A5*COSH(AF$3/$A5)-($A5+1),1)</f>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <f t="shared" ref="AG5:BJ5" si="3">-1*ROUND($A5*COSH(AG$3/$A5)-($A5+13),1)</f>
-        <v>13</v>
+        <f t="shared" ref="AG5:BJ5" si="3">-1*ROUND($A5*COSH(AG$3/$A5)-($A5+1),1)</f>
+        <v>1</v>
       </c>
       <c r="AH5">
         <f t="shared" si="3"/>
-        <v>12.9</v>
+        <v>0.9</v>
       </c>
       <c r="AI5">
         <f t="shared" si="3"/>
-        <v>12.7</v>
+        <v>0.8</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="3"/>
-        <v>12.6</v>
+        <v>0.7</v>
       </c>
       <c r="AK5">
         <f t="shared" si="3"/>
-        <v>12.3</v>
+        <v>0.5</v>
       </c>
       <c r="AL5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0.3</v>
       </c>
       <c r="AM5">
         <f t="shared" si="3"/>
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <f t="shared" si="3"/>
-        <v>11.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AO5">
         <f t="shared" si="3"/>
-        <v>10.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AP5">
         <f t="shared" si="3"/>
-        <v>10.199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AQ5">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>-1.5</v>
       </c>
       <c r="AR5">
         <f t="shared" si="3"/>
-        <v>8.8000000000000007</v>
+        <v>-1.9</v>
       </c>
       <c r="AS5">
         <f t="shared" si="3"/>
-        <v>8.1</v>
+        <v>-2.5</v>
       </c>
       <c r="AT5">
         <f t="shared" si="3"/>
-        <v>7.3</v>
+        <v>-3</v>
       </c>
       <c r="AU5">
         <f t="shared" si="3"/>
-        <v>6.4</v>
+        <v>-3.6</v>
       </c>
       <c r="AV5">
         <f t="shared" si="3"/>
-        <v>5.4</v>
+        <v>-4.3</v>
       </c>
       <c r="AW5">
         <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>-5</v>
       </c>
       <c r="AX5">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>-5.8</v>
       </c>
       <c r="AY5">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>-6.6</v>
       </c>
       <c r="AZ5">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>-7.4</v>
       </c>
       <c r="BA5">
         <f t="shared" si="3"/>
-        <v>-0.7</v>
+        <v>-8.4</v>
       </c>
       <c r="BB5">
         <f t="shared" si="3"/>
-        <v>-2.2000000000000002</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="BC5">
         <f t="shared" si="3"/>
-        <v>-3.8</v>
+        <v>-10.3</v>
       </c>
       <c r="BD5">
         <f t="shared" si="3"/>
-        <v>-5.5</v>
+        <v>-11.4</v>
       </c>
       <c r="BE5">
         <f t="shared" si="3"/>
-        <v>-7.3</v>
+        <v>-12.6</v>
       </c>
       <c r="BF5">
         <f t="shared" si="3"/>
-        <v>-9.3000000000000007</v>
+        <v>-13.8</v>
       </c>
       <c r="BG5">
         <f t="shared" si="3"/>
-        <v>-11.3</v>
+        <v>-15.1</v>
       </c>
       <c r="BH5">
         <f t="shared" si="3"/>
-        <v>-13.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="BI5">
         <f t="shared" si="3"/>
-        <v>-15.9</v>
+        <v>-17.8</v>
       </c>
       <c r="BJ5">
         <f t="shared" si="3"/>
-        <v>-18.399999999999999</v>
+        <v>-19.3</v>
       </c>
     </row>
-    <row r="6" spans="1:62" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G5:V6" si="4">-1*ROUND($A6*COSH(G$3/$A6)-($A6-1),1)</f>
+        <f t="shared" ref="G6:V6" si="4">-1*ROUND($A6*COSH(G$3/$A6)-($A6-1),1)</f>
         <v>-18.8</v>
       </c>
       <c r="H6">
@@ -14370,7 +14516,7 @@
         <v>-3.6</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W5:AL6" si="5">-1*ROUND($A6*COSH(W$3/$A6)-($A6-1),1)</f>
+        <f t="shared" ref="W6:AL6" si="5">-1*ROUND($A6*COSH(W$3/$A6)-($A6-1),1)</f>
         <v>-3.1</v>
       </c>
       <c r="X6">
@@ -14434,7 +14580,7 @@
         <v>-1.9</v>
       </c>
       <c r="AM6">
-        <f t="shared" ref="AM5:BB6" si="6">-1*ROUND($A6*COSH(AM$3/$A6)-($A6-1),1)</f>
+        <f t="shared" ref="AM6:BB6" si="6">-1*ROUND($A6*COSH(AM$3/$A6)-($A6-1),1)</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AN6">
@@ -14498,7 +14644,7 @@
         <v>-14.4</v>
       </c>
       <c r="BC6">
-        <f t="shared" ref="BC5:BM6" si="7">-1*ROUND($A6*COSH(BC$3/$A6)-($A6-1),1)</f>
+        <f t="shared" ref="BC6:BE6" si="7">-1*ROUND($A6*COSH(BC$3/$A6)-($A6-1),1)</f>
         <v>-15.7</v>
       </c>
       <c r="BD6">
@@ -14510,7 +14656,7 @@
         <v>-18.8</v>
       </c>
     </row>
-    <row r="7" spans="1:62" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22</v>
       </c>
@@ -14719,33 +14865,33 @@
         <v>-37.799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B8">
         <f t="shared" ref="B8:AE8" si="9">-1*ROUND($A8*COSH(B$3/$A8)-($A8+1),1)</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D8">
         <f t="shared" si="9"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <f t="shared" si="9"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H8">
         <f t="shared" si="9"/>
@@ -14753,7 +14899,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="9"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J8">
         <f t="shared" si="9"/>
@@ -14761,7 +14907,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <f t="shared" si="9"/>
@@ -14773,7 +14919,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="9"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
@@ -14785,7 +14931,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="9"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R8">
         <f t="shared" si="9"/>
@@ -14797,7 +14943,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="9"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="U8">
         <f t="shared" si="9"/>
@@ -14817,7 +14963,7 @@
       </c>
       <c r="Y8">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Z8">
         <f t="shared" si="9"/>
@@ -14873,7 +15019,7 @@
       </c>
       <c r="AM8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AN8">
         <f t="shared" si="10"/>
@@ -14893,7 +15039,7 @@
       </c>
       <c r="AR8">
         <f t="shared" si="10"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AS8">
         <f t="shared" si="10"/>
@@ -14905,7 +15051,7 @@
       </c>
       <c r="AU8">
         <f t="shared" si="10"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AV8">
         <f t="shared" si="10"/>
@@ -14917,7 +15063,7 @@
       </c>
       <c r="AX8">
         <f t="shared" si="10"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AY8">
         <f t="shared" si="10"/>
@@ -14929,7 +15075,7 @@
       </c>
       <c r="BA8">
         <f t="shared" si="10"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BB8">
         <f t="shared" si="10"/>
@@ -14937,7 +15083,7 @@
       </c>
       <c r="BC8">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="BD8">
         <f t="shared" si="10"/>
@@ -14945,31 +15091,2679 @@
       </c>
       <c r="BE8">
         <f t="shared" si="10"/>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="BF8">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BG8">
         <f t="shared" si="10"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="BH8">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BI8">
         <f t="shared" si="10"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BJ8">
         <f t="shared" si="10"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BJ14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="5.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C1" s="4">
+        <v>-29</v>
+      </c>
+      <c r="D1" s="4">
+        <v>-28</v>
+      </c>
+      <c r="E1" s="4">
+        <v>-27</v>
+      </c>
+      <c r="F1" s="4">
+        <v>-26</v>
+      </c>
+      <c r="G1" s="4">
+        <v>-25</v>
+      </c>
+      <c r="H1" s="4">
+        <v>-24</v>
+      </c>
+      <c r="I1" s="4">
+        <v>-23</v>
+      </c>
+      <c r="J1" s="4">
+        <v>-22</v>
+      </c>
+      <c r="K1" s="4">
+        <v>-21</v>
+      </c>
+      <c r="L1" s="4">
+        <v>-20</v>
+      </c>
+      <c r="M1" s="4">
+        <v>-19</v>
+      </c>
+      <c r="N1" s="4">
+        <v>-18</v>
+      </c>
+      <c r="O1" s="4">
+        <v>-17</v>
+      </c>
+      <c r="P1" s="4">
+        <v>-16</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>-15</v>
+      </c>
+      <c r="R1" s="4">
+        <v>-14</v>
+      </c>
+      <c r="S1" s="4">
+        <v>-13</v>
+      </c>
+      <c r="T1" s="4">
+        <v>-12</v>
+      </c>
+      <c r="U1" s="4">
+        <v>-11</v>
+      </c>
+      <c r="V1" s="4">
+        <v>-10</v>
+      </c>
+      <c r="W1" s="4">
+        <v>-9</v>
+      </c>
+      <c r="X1" s="4">
+        <v>-8</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>-7</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>-6</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>7</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>8</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>11</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>12</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>13</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>15</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>16</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>17</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>18</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>19</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>20</v>
+      </c>
+      <c r="BA1" s="4">
+        <v>21</v>
+      </c>
+      <c r="BB1" s="4">
+        <v>22</v>
+      </c>
+      <c r="BC1" s="4">
+        <v>23</v>
+      </c>
+      <c r="BD1" s="4">
+        <v>24</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>25</v>
+      </c>
+      <c r="BF1" s="4">
+        <v>26</v>
+      </c>
+      <c r="BG1" s="4">
+        <v>27</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>28</v>
+      </c>
+      <c r="BI1" s="4">
+        <v>29</v>
+      </c>
+      <c r="BJ1" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>-6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>-5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>-4</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="9">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>-3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="9">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9">
+        <v>1</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="9">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1</v>
+      </c>
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="11">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Puente.xlsx
+++ b/Puente.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>A</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>α</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Ortodoxa</t>
+  </si>
+  <si>
+    <t>Normalizada</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -162,12 +171,136 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -15122,15 +15255,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ14"/>
+  <dimension ref="A1:BJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection sqref="A1:BJ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="5.140625" style="3"/>
+    <col min="1" max="31" width="5.140625" style="3"/>
+    <col min="32" max="32" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="5.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
@@ -17762,7 +17897,6393 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-29</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-28</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-27</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-26</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-25</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-24</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-23</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-22</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-21</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-20</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-19</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-18</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-17</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-16</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-15</v>
+      </c>
+      <c r="R18" s="4">
+        <v>-14</v>
+      </c>
+      <c r="S18" s="4">
+        <v>-13</v>
+      </c>
+      <c r="T18" s="4">
+        <v>-12</v>
+      </c>
+      <c r="U18" s="4">
+        <v>-11</v>
+      </c>
+      <c r="V18" s="4">
+        <v>-10</v>
+      </c>
+      <c r="W18" s="4">
+        <v>-9</v>
+      </c>
+      <c r="X18" s="4">
+        <v>-8</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>-7</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>-6</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>7</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>8</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>10</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>11</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>12</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>13</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>15</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>16</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>17</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>18</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>19</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>20</v>
+      </c>
+      <c r="BA18" s="4">
+        <v>21</v>
+      </c>
+      <c r="BB18" s="4">
+        <v>22</v>
+      </c>
+      <c r="BC18" s="4">
+        <v>23</v>
+      </c>
+      <c r="BD18" s="4">
+        <v>24</v>
+      </c>
+      <c r="BE18" s="4">
+        <v>25</v>
+      </c>
+      <c r="BF18" s="4">
+        <v>26</v>
+      </c>
+      <c r="BG18" s="4">
+        <v>27</v>
+      </c>
+      <c r="BH18" s="4">
+        <v>28</v>
+      </c>
+      <c r="BI18" s="4">
+        <v>29</v>
+      </c>
+      <c r="BJ18" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3">
+        <f>IF(B$30&gt;=0.2*$A19,0,IF(SUM(B20:B$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <f>IF(C$30&gt;=0.2*$A19,0,IF(SUM(C20:C$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <f>IF(D$30&gt;=0.2*$A19,0,IF(SUM(D20:D$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f>IF(E$30&gt;=0.2*$A19,0,IF(SUM(E20:E$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f>IF(F$30&gt;=0.2*$A19,0,IF(SUM(F20:F$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <f>IF(G$30&gt;=0.2*$A19,0,IF(SUM(G20:G$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f>IF(H$30&gt;=0.2*$A19,0,IF(SUM(H20:H$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <f>IF(I$30&gt;=0.2*$A19,0,IF(SUM(I20:I$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(J$30&gt;=0.2*$A19,0,IF(SUM(J20:J$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>IF(K$30&gt;=0.2*$A19,0,IF(SUM(K20:K$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <f>IF(L$30&gt;=0.2*$A19,0,IF(SUM(L20:L$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <f>IF(M$30&gt;=0.2*$A19,0,IF(SUM(M20:M$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <f>IF(N$30&gt;=0.2*$A19,0,IF(SUM(N20:N$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <f>IF(O$30&gt;=0.2*$A19,0,IF(SUM(O20:O$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f>IF(P$30&gt;=0.2*$A19,0,IF(SUM(P20:P$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>IF(Q$30&gt;=0.2*$A19,0,IF(SUM(Q20:Q$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <f>IF(R$30&gt;=0.2*$A19,0,IF(SUM(R20:R$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <f>IF(S$30&gt;=0.2*$A19,0,IF(SUM(S20:S$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <f>IF(T$30&gt;=0.2*$A19,0,IF(SUM(T20:T$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <f>IF(U$30&gt;=0.2*$A19,0,IF(SUM(U20:U$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <f>IF(V$30&gt;=0.2*$A19,0,IF(SUM(V20:V$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <f>IF(W$30&gt;=0.2*$A19,0,IF(SUM(W20:W$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <f>IF(X$30&gt;=0.2*$A19,0,IF(SUM(X20:X$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3">
+        <f>IF(Y$30&gt;=0.2*$A19,0,IF(SUM(Y20:Y$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>IF(Z$30&gt;=0.2*$A19,0,IF(SUM(Z20:Z$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <f>IF(AA$30&gt;=0.2*$A19,0,IF(SUM(AA20:AA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>IF(AB$30&gt;=0.2*$A19,0,IF(SUM(AB20:AB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>IF(AC$30&gt;=0.2*$A19,0,IF(SUM(AC20:AC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>IF(AD$30&gt;=0.2*$A19,0,IF(SUM(AD20:AD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>IF(AE$30&gt;=0.2*$A19,0,IF(SUM(AE20:AE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>IF(AF$30&gt;=0.2*$A19,0,IF(SUM(AF20:AF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>IF(AG$30&gt;=0.2*$A19,0,IF(SUM(AG20:AG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <f>IF(AH$30&gt;=0.2*$A19,0,IF(SUM(AH20:AH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <f>IF(AI$30&gt;=0.2*$A19,0,IF(SUM(AI20:AI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A19,0,IF(SUM(AJ20:AJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <f>IF(AK$30&gt;=0.2*$A19,0,IF(SUM(AK20:AK$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <f>IF(AL$30&gt;=0.2*$A19,0,IF(SUM(AL20:AL$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <f>IF(AM$30&gt;=0.2*$A19,0,IF(SUM(AM20:AM$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <f>IF(AN$30&gt;=0.2*$A19,0,IF(SUM(AN20:AN$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <f>IF(AO$30&gt;=0.2*$A19,0,IF(SUM(AO20:AO$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <f>IF(AP$30&gt;=0.2*$A19,0,IF(SUM(AP20:AP$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A19,0,IF(SUM(AQ20:AQ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="3">
+        <f>IF(AR$30&gt;=0.2*$A19,0,IF(SUM(AR20:AR$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="3">
+        <f>IF(AS$30&gt;=0.2*$A19,0,IF(SUM(AS20:AS$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="3">
+        <f>IF(AT$30&gt;=0.2*$A19,0,IF(SUM(AT20:AT$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="3">
+        <f>IF(AU$30&gt;=0.2*$A19,0,IF(SUM(AU20:AU$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="3">
+        <f>IF(AV$30&gt;=0.2*$A19,0,IF(SUM(AV20:AV$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="3">
+        <f>IF(AW$30&gt;=0.2*$A19,0,IF(SUM(AW20:AW$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="3">
+        <f>IF(AX$30&gt;=0.2*$A19,0,IF(SUM(AX20:AX$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="3">
+        <f>IF(AY$30&gt;=0.2*$A19,0,IF(SUM(AY20:AY$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A19,0,IF(SUM(AZ20:AZ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="3">
+        <f>IF(BA$30&gt;=0.2*$A19,0,IF(SUM(BA20:BA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB19" s="3">
+        <f>IF(BB$30&gt;=0.2*$A19,0,IF(SUM(BB20:BB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="3">
+        <f>IF(BC$30&gt;=0.2*$A19,0,IF(SUM(BC20:BC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="3">
+        <f>IF(BD$30&gt;=0.2*$A19,0,IF(SUM(BD20:BD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="3">
+        <f>IF(BE$30&gt;=0.2*$A19,0,IF(SUM(BE20:BE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="3">
+        <f>IF(BF$30&gt;=0.2*$A19,0,IF(SUM(BF20:BF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG19" s="3">
+        <f>IF(BG$30&gt;=0.2*$A19,0,IF(SUM(BG20:BG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH19" s="3">
+        <f>IF(BH$30&gt;=0.2*$A19,0,IF(SUM(BH20:BH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="3">
+        <f>IF(BI$30&gt;=0.2*$A19,0,IF(SUM(BI20:BI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A19,0,IF(SUM(BJ20:BJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3">
+        <f>IF(B$30&gt;=0.2*$A20,0,IF(SUM(B21:B$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <f>IF(C$30&gt;=0.2*$A20,0,IF(SUM(C21:C$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <f>IF(D$30&gt;=0.2*$A20,0,IF(SUM(D21:D$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <f>IF(E$30&gt;=0.2*$A20,0,IF(SUM(E21:E$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f>IF(F$30&gt;=0.2*$A20,0,IF(SUM(F21:F$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f>IF(G$30&gt;=0.2*$A20,0,IF(SUM(G21:G$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <f>IF(H$30&gt;=0.2*$A20,0,IF(SUM(H21:H$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <f>IF(I$30&gt;=0.2*$A20,0,IF(SUM(I21:I$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(J$30&gt;=0.2*$A20,0,IF(SUM(J21:J$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f>IF(K$30&gt;=0.2*$A20,0,IF(SUM(K21:K$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <f>IF(L$30&gt;=0.2*$A20,0,IF(SUM(L21:L$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <f>IF(M$30&gt;=0.2*$A20,0,IF(SUM(M21:M$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <f>IF(N$30&gt;=0.2*$A20,0,IF(SUM(N21:N$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f>IF(O$30&gt;=0.2*$A20,0,IF(SUM(O21:O$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f>IF(P$30&gt;=0.2*$A20,0,IF(SUM(P21:P$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>IF(Q$30&gt;=0.2*$A20,0,IF(SUM(Q21:Q$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <f>IF(R$30&gt;=0.2*$A20,0,IF(SUM(R21:R$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <f>IF(S$30&gt;=0.2*$A20,0,IF(SUM(S21:S$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <f>IF(T$30&gt;=0.2*$A20,0,IF(SUM(T21:T$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <f>IF(U$30&gt;=0.2*$A20,0,IF(SUM(U21:U$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <f>IF(V$30&gt;=0.2*$A20,0,IF(SUM(V21:V$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <f>IF(W$30&gt;=0.2*$A20,0,IF(SUM(W21:W$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <f>IF(X$30&gt;=0.2*$A20,0,IF(SUM(X21:X$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <f>IF(Y$30&gt;=0.2*$A20,0,IF(SUM(Y21:Y$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>IF(Z$30&gt;=0.2*$A20,0,IF(SUM(Z21:Z$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="3">
+        <f>IF(AA$30&gt;=0.2*$A20,0,IF(SUM(AA21:AA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>IF(AB$30&gt;=0.2*$A20,0,IF(SUM(AB21:AB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC20" s="3">
+        <f>IF(AC$30&gt;=0.2*$A20,0,IF(SUM(AC21:AC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
+        <f>IF(AD$30&gt;=0.2*$A20,0,IF(SUM(AD21:AD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE20" s="3">
+        <f>IF(AE$30&gt;=0.2*$A20,0,IF(SUM(AE21:AE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3">
+        <f>IF(AF$30&gt;=0.2*$A20,0,IF(SUM(AF21:AF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG20" s="3">
+        <f>IF(AG$30&gt;=0.2*$A20,0,IF(SUM(AG21:AG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>IF(AH$30&gt;=0.2*$A20,0,IF(SUM(AH21:AH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI20" s="3">
+        <f>IF(AI$30&gt;=0.2*$A20,0,IF(SUM(AI21:AI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A20,0,IF(SUM(AJ21:AJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK20" s="3">
+        <f>IF(AK$30&gt;=0.2*$A20,0,IF(SUM(AK21:AK$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL20" s="3">
+        <f>IF(AL$30&gt;=0.2*$A20,0,IF(SUM(AL21:AL$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM20" s="3">
+        <f>IF(AM$30&gt;=0.2*$A20,0,IF(SUM(AM21:AM$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3">
+        <f>IF(AN$30&gt;=0.2*$A20,0,IF(SUM(AN21:AN$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <f>IF(AO$30&gt;=0.2*$A20,0,IF(SUM(AO21:AO$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3">
+        <f>IF(AP$30&gt;=0.2*$A20,0,IF(SUM(AP21:AP$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A20,0,IF(SUM(AQ21:AQ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="3">
+        <f>IF(AR$30&gt;=0.2*$A20,0,IF(SUM(AR21:AR$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="3">
+        <f>IF(AS$30&gt;=0.2*$A20,0,IF(SUM(AS21:AS$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="3">
+        <f>IF(AT$30&gt;=0.2*$A20,0,IF(SUM(AT21:AT$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="3">
+        <f>IF(AU$30&gt;=0.2*$A20,0,IF(SUM(AU21:AU$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="3">
+        <f>IF(AV$30&gt;=0.2*$A20,0,IF(SUM(AV21:AV$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="3">
+        <f>IF(AW$30&gt;=0.2*$A20,0,IF(SUM(AW21:AW$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="3">
+        <f>IF(AX$30&gt;=0.2*$A20,0,IF(SUM(AX21:AX$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="3">
+        <f>IF(AY$30&gt;=0.2*$A20,0,IF(SUM(AY21:AY$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A20,0,IF(SUM(AZ21:AZ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA20" s="3">
+        <f>IF(BA$30&gt;=0.2*$A20,0,IF(SUM(BA21:BA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB20" s="3">
+        <f>IF(BB$30&gt;=0.2*$A20,0,IF(SUM(BB21:BB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="3">
+        <f>IF(BC$30&gt;=0.2*$A20,0,IF(SUM(BC21:BC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="3">
+        <f>IF(BD$30&gt;=0.2*$A20,0,IF(SUM(BD21:BD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="3">
+        <f>IF(BE$30&gt;=0.2*$A20,0,IF(SUM(BE21:BE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="3">
+        <f>IF(BF$30&gt;=0.2*$A20,0,IF(SUM(BF21:BF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="3">
+        <f>IF(BG$30&gt;=0.2*$A20,0,IF(SUM(BG21:BG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH20" s="3">
+        <f>IF(BH$30&gt;=0.2*$A20,0,IF(SUM(BH21:BH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI20" s="3">
+        <f>IF(BI$30&gt;=0.2*$A20,0,IF(SUM(BI21:BI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A20,0,IF(SUM(BJ21:BJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <f>IF(B$30&gt;=0.2*$A21,0,IF(SUM(B22:B$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <f>IF(C$30&gt;=0.2*$A21,0,IF(SUM(C22:C$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f>IF(D$30&gt;=0.2*$A21,0,IF(SUM(D22:D$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f>IF(E$30&gt;=0.2*$A21,0,IF(SUM(E22:E$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f>IF(F$30&gt;=0.2*$A21,0,IF(SUM(F22:F$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f>IF(G$30&gt;=0.2*$A21,0,IF(SUM(G22:G$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f>IF(H$30&gt;=0.2*$A21,0,IF(SUM(H22:H$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <f>IF(I$30&gt;=0.2*$A21,0,IF(SUM(I22:I$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(J$30&gt;=0.2*$A21,0,IF(SUM(J22:J$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f>IF(K$30&gt;=0.2*$A21,0,IF(SUM(K22:K$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f>IF(L$30&gt;=0.2*$A21,0,IF(SUM(L22:L$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f>IF(M$30&gt;=0.2*$A21,0,IF(SUM(M22:M$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <f>IF(N$30&gt;=0.2*$A21,0,IF(SUM(N22:N$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <f>IF(O$30&gt;=0.2*$A21,0,IF(SUM(O22:O$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f>IF(P$30&gt;=0.2*$A21,0,IF(SUM(P22:P$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>IF(Q$30&gt;=0.2*$A21,0,IF(SUM(Q22:Q$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <f>IF(R$30&gt;=0.2*$A21,0,IF(SUM(R22:R$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <f>IF(S$30&gt;=0.2*$A21,0,IF(SUM(S22:S$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="3">
+        <f>IF(T$30&gt;=0.2*$A21,0,IF(SUM(T22:T$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="3">
+        <f>IF(U$30&gt;=0.2*$A21,0,IF(SUM(U22:U$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V21" s="3">
+        <f>IF(V$30&gt;=0.2*$A21,0,IF(SUM(V22:V$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W21" s="3">
+        <f>IF(W$30&gt;=0.2*$A21,0,IF(SUM(W22:W$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="3">
+        <f>IF(X$30&gt;=0.2*$A21,0,IF(SUM(X22:X$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="3">
+        <f>IF(Y$30&gt;=0.2*$A21,0,IF(SUM(Y22:Y$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>IF(Z$30&gt;=0.2*$A21,0,IF(SUM(Z22:Z$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA21" s="3">
+        <f>IF(AA$30&gt;=0.2*$A21,0,IF(SUM(AA22:AA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <f>IF(AB$30&gt;=0.2*$A21,0,IF(SUM(AB22:AB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>IF(AC$30&gt;=0.2*$A21,0,IF(SUM(AC22:AC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD21" s="3">
+        <f>IF(AD$30&gt;=0.2*$A21,0,IF(SUM(AD22:AD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>IF(AE$30&gt;=0.2*$A21,0,IF(SUM(AE22:AE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3">
+        <f>IF(AF$30&gt;=0.2*$A21,0,IF(SUM(AF22:AF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG21" s="3">
+        <f>IF(AG$30&gt;=0.2*$A21,0,IF(SUM(AG22:AG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH21" s="3">
+        <f>IF(AH$30&gt;=0.2*$A21,0,IF(SUM(AH22:AH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI21" s="3">
+        <f>IF(AI$30&gt;=0.2*$A21,0,IF(SUM(AI22:AI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A21,0,IF(SUM(AJ22:AJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK21" s="3">
+        <f>IF(AK$30&gt;=0.2*$A21,0,IF(SUM(AK22:AK$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL21" s="3">
+        <f>IF(AL$30&gt;=0.2*$A21,0,IF(SUM(AL22:AL$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM21" s="3">
+        <f>IF(AM$30&gt;=0.2*$A21,0,IF(SUM(AM22:AM$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN21" s="3">
+        <f>IF(AN$30&gt;=0.2*$A21,0,IF(SUM(AN22:AN$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO21" s="3">
+        <f>IF(AO$30&gt;=0.2*$A21,0,IF(SUM(AO22:AO$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP21" s="3">
+        <f>IF(AP$30&gt;=0.2*$A21,0,IF(SUM(AP22:AP$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A21,0,IF(SUM(AQ22:AQ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR21" s="3">
+        <f>IF(AR$30&gt;=0.2*$A21,0,IF(SUM(AR22:AR$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS21" s="3">
+        <f>IF(AS$30&gt;=0.2*$A21,0,IF(SUM(AS22:AS$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT21" s="3">
+        <f>IF(AT$30&gt;=0.2*$A21,0,IF(SUM(AT22:AT$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU21" s="3">
+        <f>IF(AU$30&gt;=0.2*$A21,0,IF(SUM(AU22:AU$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="3">
+        <f>IF(AV$30&gt;=0.2*$A21,0,IF(SUM(AV22:AV$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3">
+        <f>IF(AW$30&gt;=0.2*$A21,0,IF(SUM(AW22:AW$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="3">
+        <f>IF(AX$30&gt;=0.2*$A21,0,IF(SUM(AX22:AX$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3">
+        <f>IF(AY$30&gt;=0.2*$A21,0,IF(SUM(AY22:AY$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A21,0,IF(SUM(AZ22:AZ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="3">
+        <f>IF(BA$30&gt;=0.2*$A21,0,IF(SUM(BA22:BA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB21" s="3">
+        <f>IF(BB$30&gt;=0.2*$A21,0,IF(SUM(BB22:BB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="3">
+        <f>IF(BC$30&gt;=0.2*$A21,0,IF(SUM(BC22:BC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="3">
+        <f>IF(BD$30&gt;=0.2*$A21,0,IF(SUM(BD22:BD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="3">
+        <f>IF(BE$30&gt;=0.2*$A21,0,IF(SUM(BE22:BE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="3">
+        <f>IF(BF$30&gt;=0.2*$A21,0,IF(SUM(BF22:BF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="3">
+        <f>IF(BG$30&gt;=0.2*$A21,0,IF(SUM(BG22:BG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="3">
+        <f>IF(BH$30&gt;=0.2*$A21,0,IF(SUM(BH22:BH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="3">
+        <f>IF(BI$30&gt;=0.2*$A21,0,IF(SUM(BI22:BI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A21,0,IF(SUM(BJ22:BJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <f>IF(B$30&gt;=0.2*$A22,0,IF(SUM(B23:B$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <f>IF(C$30&gt;=0.2*$A22,0,IF(SUM(C23:C$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <f>IF(D$30&gt;=0.2*$A22,0,IF(SUM(D23:D$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f>IF(E$30&gt;=0.2*$A22,0,IF(SUM(E23:E$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f>IF(F$30&gt;=0.2*$A22,0,IF(SUM(F23:F$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <f>IF(G$30&gt;=0.2*$A22,0,IF(SUM(G23:G$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <f>IF(H$30&gt;=0.2*$A22,0,IF(SUM(H23:H$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <f>IF(I$30&gt;=0.2*$A22,0,IF(SUM(I23:I$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(J$30&gt;=0.2*$A22,0,IF(SUM(J23:J$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>IF(K$30&gt;=0.2*$A22,0,IF(SUM(K23:K$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f>IF(L$30&gt;=0.2*$A22,0,IF(SUM(L23:L$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <f>IF(M$30&gt;=0.2*$A22,0,IF(SUM(M23:M$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
+        <f>IF(N$30&gt;=0.2*$A22,0,IF(SUM(N23:N$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <f>IF(O$30&gt;=0.2*$A22,0,IF(SUM(O23:O$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="3">
+        <f>IF(P$30&gt;=0.2*$A22,0,IF(SUM(P23:P$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>IF(Q$30&gt;=0.2*$A22,0,IF(SUM(Q23:Q$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <f>IF(R$30&gt;=0.2*$A22,0,IF(SUM(R23:R$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="3">
+        <f>IF(S$30&gt;=0.2*$A22,0,IF(SUM(S23:S$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="3">
+        <f>IF(T$30&gt;=0.2*$A22,0,IF(SUM(T23:T$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="3">
+        <f>IF(U$30&gt;=0.2*$A22,0,IF(SUM(U23:U$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <f>IF(V$30&gt;=0.2*$A22,0,IF(SUM(V23:V$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W22" s="3">
+        <f>IF(W$30&gt;=0.2*$A22,0,IF(SUM(W23:W$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="3">
+        <f>IF(X$30&gt;=0.2*$A22,0,IF(SUM(X23:X$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>IF(Y$30&gt;=0.2*$A22,0,IF(SUM(Y23:Y$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>IF(Z$30&gt;=0.2*$A22,0,IF(SUM(Z23:Z$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <f>IF(AA$30&gt;=0.2*$A22,0,IF(SUM(AA23:AA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>IF(AB$30&gt;=0.2*$A22,0,IF(SUM(AB23:AB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>IF(AC$30&gt;=0.2*$A22,0,IF(SUM(AC23:AC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>IF(AD$30&gt;=0.2*$A22,0,IF(SUM(AD23:AD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>IF(AE$30&gt;=0.2*$A22,0,IF(SUM(AE23:AE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>IF(AF$30&gt;=0.2*$A22,0,IF(SUM(AF23:AF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG22" s="3">
+        <f>IF(AG$30&gt;=0.2*$A22,0,IF(SUM(AG23:AG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH22" s="3">
+        <f>IF(AH$30&gt;=0.2*$A22,0,IF(SUM(AH23:AH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI22" s="3">
+        <f>IF(AI$30&gt;=0.2*$A22,0,IF(SUM(AI23:AI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A22,0,IF(SUM(AJ23:AJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK22" s="3">
+        <f>IF(AK$30&gt;=0.2*$A22,0,IF(SUM(AK23:AK$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL22" s="3">
+        <f>IF(AL$30&gt;=0.2*$A22,0,IF(SUM(AL23:AL$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM22" s="3">
+        <f>IF(AM$30&gt;=0.2*$A22,0,IF(SUM(AM23:AM$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN22" s="3">
+        <f>IF(AN$30&gt;=0.2*$A22,0,IF(SUM(AN23:AN$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO22" s="3">
+        <f>IF(AO$30&gt;=0.2*$A22,0,IF(SUM(AO23:AO$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP22" s="3">
+        <f>IF(AP$30&gt;=0.2*$A22,0,IF(SUM(AP23:AP$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A22,0,IF(SUM(AQ23:AQ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR22" s="3">
+        <f>IF(AR$30&gt;=0.2*$A22,0,IF(SUM(AR23:AR$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS22" s="3">
+        <f>IF(AS$30&gt;=0.2*$A22,0,IF(SUM(AS23:AS$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT22" s="3">
+        <f>IF(AT$30&gt;=0.2*$A22,0,IF(SUM(AT23:AT$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU22" s="3">
+        <f>IF(AU$30&gt;=0.2*$A22,0,IF(SUM(AU23:AU$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV22" s="3">
+        <f>IF(AV$30&gt;=0.2*$A22,0,IF(SUM(AV23:AV$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW22" s="3">
+        <f>IF(AW$30&gt;=0.2*$A22,0,IF(SUM(AW23:AW$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX22" s="3">
+        <f>IF(AX$30&gt;=0.2*$A22,0,IF(SUM(AX23:AX$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY22" s="3">
+        <f>IF(AY$30&gt;=0.2*$A22,0,IF(SUM(AY23:AY$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A22,0,IF(SUM(AZ23:AZ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA22" s="3">
+        <f>IF(BA$30&gt;=0.2*$A22,0,IF(SUM(BA23:BA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB22" s="3">
+        <f>IF(BB$30&gt;=0.2*$A22,0,IF(SUM(BB23:BB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC22" s="3">
+        <f>IF(BC$30&gt;=0.2*$A22,0,IF(SUM(BC23:BC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="3">
+        <f>IF(BD$30&gt;=0.2*$A22,0,IF(SUM(BD23:BD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="3">
+        <f>IF(BE$30&gt;=0.2*$A22,0,IF(SUM(BE23:BE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="3">
+        <f>IF(BF$30&gt;=0.2*$A22,0,IF(SUM(BF23:BF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="3">
+        <f>IF(BG$30&gt;=0.2*$A22,0,IF(SUM(BG23:BG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH22" s="3">
+        <f>IF(BH$30&gt;=0.2*$A22,0,IF(SUM(BH23:BH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI22" s="3">
+        <f>IF(BI$30&gt;=0.2*$A22,0,IF(SUM(BI23:BI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A22,0,IF(SUM(BJ23:BJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <f>IF(B$30&gt;=0.2*$A23,0,IF(SUM(B24:B$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <f>IF(C$30&gt;=0.2*$A23,0,IF(SUM(C24:C$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <f>IF(D$30&gt;=0.2*$A23,0,IF(SUM(D24:D$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <f>IF(E$30&gt;=0.2*$A23,0,IF(SUM(E24:E$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <f>IF(F$30&gt;=0.2*$A23,0,IF(SUM(F24:F$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <f>IF(G$30&gt;=0.2*$A23,0,IF(SUM(G24:G$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <f>IF(H$30&gt;=0.2*$A23,0,IF(SUM(H24:H$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <f>IF(I$30&gt;=0.2*$A23,0,IF(SUM(I24:I$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(J$30&gt;=0.2*$A23,0,IF(SUM(J24:J$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <f>IF(K$30&gt;=0.2*$A23,0,IF(SUM(K24:K$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <f>IF(L$30&gt;=0.2*$A23,0,IF(SUM(L24:L$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <f>IF(M$30&gt;=0.2*$A23,0,IF(SUM(M24:M$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
+        <f>IF(N$30&gt;=0.2*$A23,0,IF(SUM(N24:N$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <f>IF(O$30&gt;=0.2*$A23,0,IF(SUM(O24:O$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <f>IF(P$30&gt;=0.2*$A23,0,IF(SUM(P24:P$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>IF(Q$30&gt;=0.2*$A23,0,IF(SUM(Q24:Q$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <f>IF(R$30&gt;=0.2*$A23,0,IF(SUM(R24:R$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <f>IF(S$30&gt;=0.2*$A23,0,IF(SUM(S24:S$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T23" s="3">
+        <f>IF(T$30&gt;=0.2*$A23,0,IF(SUM(T24:T$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U23" s="3">
+        <f>IF(U$30&gt;=0.2*$A23,0,IF(SUM(U24:U$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V23" s="3">
+        <f>IF(V$30&gt;=0.2*$A23,0,IF(SUM(V24:V$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <f>IF(W$30&gt;=0.2*$A23,0,IF(SUM(W24:W$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <f>IF(X$30&gt;=0.2*$A23,0,IF(SUM(X24:X$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y23" s="3">
+        <f>IF(Y$30&gt;=0.2*$A23,0,IF(SUM(Y24:Y$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>IF(Z$30&gt;=0.2*$A23,0,IF(SUM(Z24:Z$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="3">
+        <f>IF(AA$30&gt;=0.2*$A23,0,IF(SUM(AA24:AA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <f>IF(AB$30&gt;=0.2*$A23,0,IF(SUM(AB24:AB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <f>IF(AC$30&gt;=0.2*$A23,0,IF(SUM(AC24:AC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="3">
+        <f>IF(AD$30&gt;=0.2*$A23,0,IF(SUM(AD24:AD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE23" s="3">
+        <f>IF(AE$30&gt;=0.2*$A23,0,IF(SUM(AE24:AE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF23" s="3">
+        <f>IF(AF$30&gt;=0.2*$A23,0,IF(SUM(AF24:AF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG23" s="3">
+        <f>IF(AG$30&gt;=0.2*$A23,0,IF(SUM(AG24:AG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="3">
+        <f>IF(AH$30&gt;=0.2*$A23,0,IF(SUM(AH24:AH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI23" s="3">
+        <f>IF(AI$30&gt;=0.2*$A23,0,IF(SUM(AI24:AI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A23,0,IF(SUM(AJ24:AJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK23" s="3">
+        <f>IF(AK$30&gt;=0.2*$A23,0,IF(SUM(AK24:AK$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="3">
+        <f>IF(AL$30&gt;=0.2*$A23,0,IF(SUM(AL24:AL$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM23" s="3">
+        <f>IF(AM$30&gt;=0.2*$A23,0,IF(SUM(AM24:AM$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN23" s="3">
+        <f>IF(AN$30&gt;=0.2*$A23,0,IF(SUM(AN24:AN$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO23" s="3">
+        <f>IF(AO$30&gt;=0.2*$A23,0,IF(SUM(AO24:AO$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP23" s="3">
+        <f>IF(AP$30&gt;=0.2*$A23,0,IF(SUM(AP24:AP$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A23,0,IF(SUM(AQ24:AQ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR23" s="3">
+        <f>IF(AR$30&gt;=0.2*$A23,0,IF(SUM(AR24:AR$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS23" s="3">
+        <f>IF(AS$30&gt;=0.2*$A23,0,IF(SUM(AS24:AS$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT23" s="3">
+        <f>IF(AT$30&gt;=0.2*$A23,0,IF(SUM(AT24:AT$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU23" s="3">
+        <f>IF(AU$30&gt;=0.2*$A23,0,IF(SUM(AU24:AU$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV23" s="3">
+        <f>IF(AV$30&gt;=0.2*$A23,0,IF(SUM(AV24:AV$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW23" s="3">
+        <f>IF(AW$30&gt;=0.2*$A23,0,IF(SUM(AW24:AW$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX23" s="3">
+        <f>IF(AX$30&gt;=0.2*$A23,0,IF(SUM(AX24:AX$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY23" s="3">
+        <f>IF(AY$30&gt;=0.2*$A23,0,IF(SUM(AY24:AY$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A23,0,IF(SUM(AZ24:AZ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA23" s="3">
+        <f>IF(BA$30&gt;=0.2*$A23,0,IF(SUM(BA24:BA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB23" s="3">
+        <f>IF(BB$30&gt;=0.2*$A23,0,IF(SUM(BB24:BB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC23" s="3">
+        <f>IF(BC$30&gt;=0.2*$A23,0,IF(SUM(BC24:BC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD23" s="3">
+        <f>IF(BD$30&gt;=0.2*$A23,0,IF(SUM(BD24:BD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE23" s="3">
+        <f>IF(BE$30&gt;=0.2*$A23,0,IF(SUM(BE24:BE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="3">
+        <f>IF(BF$30&gt;=0.2*$A23,0,IF(SUM(BF24:BF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="3">
+        <f>IF(BG$30&gt;=0.2*$A23,0,IF(SUM(BG24:BG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH23" s="3">
+        <f>IF(BH$30&gt;=0.2*$A23,0,IF(SUM(BH24:BH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI23" s="3">
+        <f>IF(BI$30&gt;=0.2*$A23,0,IF(SUM(BI24:BI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A23,0,IF(SUM(BJ24:BJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <f>IF(B$30&gt;=0.2*$A24,0,IF(SUM(B25:B$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <f>IF(C$30&gt;=0.2*$A24,0,IF(SUM(C25:C$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f>IF(D$30&gt;=0.2*$A24,0,IF(SUM(D25:D$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f>IF(E$30&gt;=0.2*$A24,0,IF(SUM(E25:E$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <f>IF(F$30&gt;=0.2*$A24,0,IF(SUM(F25:F$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <f>IF(G$30&gt;=0.2*$A24,0,IF(SUM(G25:G$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <f>IF(H$30&gt;=0.2*$A24,0,IF(SUM(H25:H$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <f>IF(I$30&gt;=0.2*$A24,0,IF(SUM(I25:I$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <f>IF(J$30&gt;=0.2*$A24,0,IF(SUM(J25:J$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <f>IF(K$30&gt;=0.2*$A24,0,IF(SUM(K25:K$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <f>IF(L$30&gt;=0.2*$A24,0,IF(SUM(L25:L$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <f>IF(M$30&gt;=0.2*$A24,0,IF(SUM(M25:M$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <f>IF(N$30&gt;=0.2*$A24,0,IF(SUM(N25:N$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <f>IF(O$30&gt;=0.2*$A24,0,IF(SUM(O25:O$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <f>IF(P$30&gt;=0.2*$A24,0,IF(SUM(P25:P$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>IF(Q$30&gt;=0.2*$A24,0,IF(SUM(Q25:Q$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <f>IF(R$30&gt;=0.2*$A24,0,IF(SUM(R25:R$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="3">
+        <f>IF(S$30&gt;=0.2*$A24,0,IF(SUM(S25:S$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T24" s="3">
+        <f>IF(T$30&gt;=0.2*$A24,0,IF(SUM(T25:T$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <f>IF(U$30&gt;=0.2*$A24,0,IF(SUM(U25:U$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <f>IF(V$30&gt;=0.2*$A24,0,IF(SUM(V25:V$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W24" s="3">
+        <f>IF(W$30&gt;=0.2*$A24,0,IF(SUM(W25:W$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="3">
+        <f>IF(X$30&gt;=0.2*$A24,0,IF(SUM(X25:X$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <f>IF(Y$30&gt;=0.2*$A24,0,IF(SUM(Y25:Y$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>IF(Z$30&gt;=0.2*$A24,0,IF(SUM(Z25:Z$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>IF(AA$30&gt;=0.2*$A24,0,IF(SUM(AA25:AA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <f>IF(AB$30&gt;=0.2*$A24,0,IF(SUM(AB25:AB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC24" s="3">
+        <f>IF(AC$30&gt;=0.2*$A24,0,IF(SUM(AC25:AC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3">
+        <f>IF(AD$30&gt;=0.2*$A24,0,IF(SUM(AD25:AD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <f>IF(AE$30&gt;=0.2*$A24,0,IF(SUM(AE25:AE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3">
+        <f>IF(AF$30&gt;=0.2*$A24,0,IF(SUM(AF25:AF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG24" s="3">
+        <f>IF(AG$30&gt;=0.2*$A24,0,IF(SUM(AG25:AG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3">
+        <f>IF(AH$30&gt;=0.2*$A24,0,IF(SUM(AH25:AH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI24" s="3">
+        <f>IF(AI$30&gt;=0.2*$A24,0,IF(SUM(AI25:AI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A24,0,IF(SUM(AJ25:AJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK24" s="3">
+        <f>IF(AK$30&gt;=0.2*$A24,0,IF(SUM(AK25:AK$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL24" s="3">
+        <f>IF(AL$30&gt;=0.2*$A24,0,IF(SUM(AL25:AL$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM24" s="3">
+        <f>IF(AM$30&gt;=0.2*$A24,0,IF(SUM(AM25:AM$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN24" s="3">
+        <f>IF(AN$30&gt;=0.2*$A24,0,IF(SUM(AN25:AN$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO24" s="3">
+        <f>IF(AO$30&gt;=0.2*$A24,0,IF(SUM(AO25:AO$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP24" s="3">
+        <f>IF(AP$30&gt;=0.2*$A24,0,IF(SUM(AP25:AP$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A24,0,IF(SUM(AQ25:AQ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR24" s="3">
+        <f>IF(AR$30&gt;=0.2*$A24,0,IF(SUM(AR25:AR$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS24" s="3">
+        <f>IF(AS$30&gt;=0.2*$A24,0,IF(SUM(AS25:AS$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT24" s="3">
+        <f>IF(AT$30&gt;=0.2*$A24,0,IF(SUM(AT25:AT$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU24" s="3">
+        <f>IF(AU$30&gt;=0.2*$A24,0,IF(SUM(AU25:AU$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV24" s="3">
+        <f>IF(AV$30&gt;=0.2*$A24,0,IF(SUM(AV25:AV$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW24" s="3">
+        <f>IF(AW$30&gt;=0.2*$A24,0,IF(SUM(AW25:AW$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX24" s="3">
+        <f>IF(AX$30&gt;=0.2*$A24,0,IF(SUM(AX25:AX$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY24" s="3">
+        <f>IF(AY$30&gt;=0.2*$A24,0,IF(SUM(AY25:AY$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A24,0,IF(SUM(AZ25:AZ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA24" s="3">
+        <f>IF(BA$30&gt;=0.2*$A24,0,IF(SUM(BA25:BA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB24" s="3">
+        <f>IF(BB$30&gt;=0.2*$A24,0,IF(SUM(BB25:BB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC24" s="3">
+        <f>IF(BC$30&gt;=0.2*$A24,0,IF(SUM(BC25:BC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD24" s="3">
+        <f>IF(BD$30&gt;=0.2*$A24,0,IF(SUM(BD25:BD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE24" s="3">
+        <f>IF(BE$30&gt;=0.2*$A24,0,IF(SUM(BE25:BE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF24" s="3">
+        <f>IF(BF$30&gt;=0.2*$A24,0,IF(SUM(BF25:BF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG24" s="3">
+        <f>IF(BG$30&gt;=0.2*$A24,0,IF(SUM(BG25:BG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH24" s="3">
+        <f>IF(BH$30&gt;=0.2*$A24,0,IF(SUM(BH25:BH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI24" s="3">
+        <f>IF(BI$30&gt;=0.2*$A24,0,IF(SUM(BI25:BI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A24,0,IF(SUM(BJ25:BJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <f>IF(B$30&gt;=0.2*$A25,0,IF(SUM(B26:B$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <f>IF(C$30&gt;=0.2*$A25,0,IF(SUM(C26:C$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <f>IF(D$30&gt;=0.2*$A25,0,IF(SUM(D26:D$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <f>IF(E$30&gt;=0.2*$A25,0,IF(SUM(E26:E$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <f>IF(F$30&gt;=0.2*$A25,0,IF(SUM(F26:F$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <f>IF(G$30&gt;=0.2*$A25,0,IF(SUM(G26:G$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <f>IF(H$30&gt;=0.2*$A25,0,IF(SUM(H26:H$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <f>IF(I$30&gt;=0.2*$A25,0,IF(SUM(I26:I$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <f>IF(J$30&gt;=0.2*$A25,0,IF(SUM(J26:J$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <f>IF(K$30&gt;=0.2*$A25,0,IF(SUM(K26:K$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <f>IF(L$30&gt;=0.2*$A25,0,IF(SUM(L26:L$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <f>IF(M$30&gt;=0.2*$A25,0,IF(SUM(M26:M$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <f>IF(N$30&gt;=0.2*$A25,0,IF(SUM(N26:N$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <f>IF(O$30&gt;=0.2*$A25,0,IF(SUM(O26:O$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <f>IF(P$30&gt;=0.2*$A25,0,IF(SUM(P26:P$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>IF(Q$30&gt;=0.2*$A25,0,IF(SUM(Q26:Q$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <f>IF(R$30&gt;=0.2*$A25,0,IF(SUM(R26:R$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <f>IF(S$30&gt;=0.2*$A25,0,IF(SUM(S26:S$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="3">
+        <f>IF(T$30&gt;=0.2*$A25,0,IF(SUM(T26:T$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="3">
+        <f>IF(U$30&gt;=0.2*$A25,0,IF(SUM(U26:U$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <f>IF(V$30&gt;=0.2*$A25,0,IF(SUM(V26:V$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W25" s="3">
+        <f>IF(W$30&gt;=0.2*$A25,0,IF(SUM(W26:W$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X25" s="3">
+        <f>IF(X$30&gt;=0.2*$A25,0,IF(SUM(X26:X$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y25" s="3">
+        <f>IF(Y$30&gt;=0.2*$A25,0,IF(SUM(Y26:Y$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="3">
+        <f>IF(Z$30&gt;=0.2*$A25,0,IF(SUM(Z26:Z$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>IF(AA$30&gt;=0.2*$A25,0,IF(SUM(AA26:AA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <f>IF(AB$30&gt;=0.2*$A25,0,IF(SUM(AB26:AB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <f>IF(AC$30&gt;=0.2*$A25,0,IF(SUM(AC26:AC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <f>IF(AD$30&gt;=0.2*$A25,0,IF(SUM(AD26:AD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <f>IF(AE$30&gt;=0.2*$A25,0,IF(SUM(AE26:AE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <f>IF(AF$30&gt;=0.2*$A25,0,IF(SUM(AF26:AF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <f>IF(AG$30&gt;=0.2*$A25,0,IF(SUM(AG26:AG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>IF(AH$30&gt;=0.2*$A25,0,IF(SUM(AH26:AH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <f>IF(AI$30&gt;=0.2*$A25,0,IF(SUM(AI26:AI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A25,0,IF(SUM(AJ26:AJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="3">
+        <f>IF(AK$30&gt;=0.2*$A25,0,IF(SUM(AK26:AK$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="3">
+        <f>IF(AL$30&gt;=0.2*$A25,0,IF(SUM(AL26:AL$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="3">
+        <f>IF(AM$30&gt;=0.2*$A25,0,IF(SUM(AM26:AM$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN25" s="3">
+        <f>IF(AN$30&gt;=0.2*$A25,0,IF(SUM(AN26:AN$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO25" s="3">
+        <f>IF(AO$30&gt;=0.2*$A25,0,IF(SUM(AO26:AO$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP25" s="3">
+        <f>IF(AP$30&gt;=0.2*$A25,0,IF(SUM(AP26:AP$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A25,0,IF(SUM(AQ26:AQ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR25" s="3">
+        <f>IF(AR$30&gt;=0.2*$A25,0,IF(SUM(AR26:AR$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS25" s="3">
+        <f>IF(AS$30&gt;=0.2*$A25,0,IF(SUM(AS26:AS$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT25" s="3">
+        <f>IF(AT$30&gt;=0.2*$A25,0,IF(SUM(AT26:AT$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU25" s="3">
+        <f>IF(AU$30&gt;=0.2*$A25,0,IF(SUM(AU26:AU$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV25" s="3">
+        <f>IF(AV$30&gt;=0.2*$A25,0,IF(SUM(AV26:AV$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW25" s="3">
+        <f>IF(AW$30&gt;=0.2*$A25,0,IF(SUM(AW26:AW$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX25" s="3">
+        <f>IF(AX$30&gt;=0.2*$A25,0,IF(SUM(AX26:AX$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY25" s="3">
+        <f>IF(AY$30&gt;=0.2*$A25,0,IF(SUM(AY26:AY$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A25,0,IF(SUM(AZ26:AZ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA25" s="3">
+        <f>IF(BA$30&gt;=0.2*$A25,0,IF(SUM(BA26:BA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB25" s="3">
+        <f>IF(BB$30&gt;=0.2*$A25,0,IF(SUM(BB26:BB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC25" s="3">
+        <f>IF(BC$30&gt;=0.2*$A25,0,IF(SUM(BC26:BC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD25" s="3">
+        <f>IF(BD$30&gt;=0.2*$A25,0,IF(SUM(BD26:BD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE25" s="3">
+        <f>IF(BE$30&gt;=0.2*$A25,0,IF(SUM(BE26:BE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="3">
+        <f>IF(BF$30&gt;=0.2*$A25,0,IF(SUM(BF26:BF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG25" s="3">
+        <f>IF(BG$30&gt;=0.2*$A25,0,IF(SUM(BG26:BG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH25" s="3">
+        <f>IF(BH$30&gt;=0.2*$A25,0,IF(SUM(BH26:BH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI25" s="3">
+        <f>IF(BI$30&gt;=0.2*$A25,0,IF(SUM(BI26:BI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A25,0,IF(SUM(BJ26:BJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <f>IF(B$30&gt;=0.2*$A26,0,IF(SUM(B27:B$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <f>IF(C$30&gt;=0.2*$A26,0,IF(SUM(C27:C$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <f>IF(D$30&gt;=0.2*$A26,0,IF(SUM(D27:D$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <f>IF(E$30&gt;=0.2*$A26,0,IF(SUM(E27:E$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <f>IF(F$30&gt;=0.2*$A26,0,IF(SUM(F27:F$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <f>IF(G$30&gt;=0.2*$A26,0,IF(SUM(G27:G$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <f>IF(H$30&gt;=0.2*$A26,0,IF(SUM(H27:H$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <f>IF(I$30&gt;=0.2*$A26,0,IF(SUM(I27:I$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <f>IF(J$30&gt;=0.2*$A26,0,IF(SUM(J27:J$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <f>IF(K$30&gt;=0.2*$A26,0,IF(SUM(K27:K$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <f>IF(L$30&gt;=0.2*$A26,0,IF(SUM(L27:L$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <f>IF(M$30&gt;=0.2*$A26,0,IF(SUM(M27:M$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <f>IF(N$30&gt;=0.2*$A26,0,IF(SUM(N27:N$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <f>IF(O$30&gt;=0.2*$A26,0,IF(SUM(O27:O$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <f>IF(P$30&gt;=0.2*$A26,0,IF(SUM(P27:P$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>IF(Q$30&gt;=0.2*$A26,0,IF(SUM(Q27:Q$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <f>IF(R$30&gt;=0.2*$A26,0,IF(SUM(R27:R$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <f>IF(S$30&gt;=0.2*$A26,0,IF(SUM(S27:S$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <f>IF(T$30&gt;=0.2*$A26,0,IF(SUM(T27:T$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <f>IF(U$30&gt;=0.2*$A26,0,IF(SUM(U27:U$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <f>IF(V$30&gt;=0.2*$A26,0,IF(SUM(V27:V$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <f>IF(W$30&gt;=0.2*$A26,0,IF(SUM(W27:W$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <f>IF(X$30&gt;=0.2*$A26,0,IF(SUM(X27:X$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <f>IF(Y$30&gt;=0.2*$A26,0,IF(SUM(Y27:Y$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <f>IF(Z$30&gt;=0.2*$A26,0,IF(SUM(Z27:Z$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <f>IF(AA$30&gt;=0.2*$A26,0,IF(SUM(AA27:AA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <f>IF(AB$30&gt;=0.2*$A26,0,IF(SUM(AB27:AB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <f>IF(AC$30&gt;=0.2*$A26,0,IF(SUM(AC27:AC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <f>IF(AD$30&gt;=0.2*$A26,0,IF(SUM(AD27:AD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <f>IF(AE$30&gt;=0.2*$A26,0,IF(SUM(AE27:AE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <f>IF(AF$30&gt;=0.2*$A26,0,IF(SUM(AF27:AF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
+        <f>IF(AG$30&gt;=0.2*$A26,0,IF(SUM(AG27:AG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <f>IF(AH$30&gt;=0.2*$A26,0,IF(SUM(AH27:AH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <f>IF(AI$30&gt;=0.2*$A26,0,IF(SUM(AI27:AI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A26,0,IF(SUM(AJ27:AJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
+        <f>IF(AK$30&gt;=0.2*$A26,0,IF(SUM(AK27:AK$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="3">
+        <f>IF(AL$30&gt;=0.2*$A26,0,IF(SUM(AL27:AL$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="3">
+        <f>IF(AM$30&gt;=0.2*$A26,0,IF(SUM(AM27:AM$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="3">
+        <f>IF(AN$30&gt;=0.2*$A26,0,IF(SUM(AN27:AN$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="3">
+        <f>IF(AO$30&gt;=0.2*$A26,0,IF(SUM(AO27:AO$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="3">
+        <f>IF(AP$30&gt;=0.2*$A26,0,IF(SUM(AP27:AP$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A26,0,IF(SUM(AQ27:AQ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="3">
+        <f>IF(AR$30&gt;=0.2*$A26,0,IF(SUM(AR27:AR$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS26" s="3">
+        <f>IF(AS$30&gt;=0.2*$A26,0,IF(SUM(AS27:AS$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="3">
+        <f>IF(AT$30&gt;=0.2*$A26,0,IF(SUM(AT27:AT$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU26" s="3">
+        <f>IF(AU$30&gt;=0.2*$A26,0,IF(SUM(AU27:AU$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV26" s="3">
+        <f>IF(AV$30&gt;=0.2*$A26,0,IF(SUM(AV27:AV$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW26" s="3">
+        <f>IF(AW$30&gt;=0.2*$A26,0,IF(SUM(AW27:AW$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX26" s="3">
+        <f>IF(AX$30&gt;=0.2*$A26,0,IF(SUM(AX27:AX$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY26" s="3">
+        <f>IF(AY$30&gt;=0.2*$A26,0,IF(SUM(AY27:AY$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A26,0,IF(SUM(AZ27:AZ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA26" s="3">
+        <f>IF(BA$30&gt;=0.2*$A26,0,IF(SUM(BA27:BA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB26" s="3">
+        <f>IF(BB$30&gt;=0.2*$A26,0,IF(SUM(BB27:BB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC26" s="3">
+        <f>IF(BC$30&gt;=0.2*$A26,0,IF(SUM(BC27:BC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD26" s="3">
+        <f>IF(BD$30&gt;=0.2*$A26,0,IF(SUM(BD27:BD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE26" s="3">
+        <f>IF(BE$30&gt;=0.2*$A26,0,IF(SUM(BE27:BE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF26" s="3">
+        <f>IF(BF$30&gt;=0.2*$A26,0,IF(SUM(BF27:BF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG26" s="3">
+        <f>IF(BG$30&gt;=0.2*$A26,0,IF(SUM(BG27:BG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH26" s="3">
+        <f>IF(BH$30&gt;=0.2*$A26,0,IF(SUM(BH27:BH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI26" s="3">
+        <f>IF(BI$30&gt;=0.2*$A26,0,IF(SUM(BI27:BI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A26,0,IF(SUM(BJ27:BJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <f>IF(B$30&gt;=0.2*$A27,0,IF(SUM(B28:B$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <f>IF(C$30&gt;=0.2*$A27,0,IF(SUM(C28:C$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <f>IF(D$30&gt;=0.2*$A27,0,IF(SUM(D28:D$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <f>IF(E$30&gt;=0.2*$A27,0,IF(SUM(E28:E$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <f>IF(F$30&gt;=0.2*$A27,0,IF(SUM(F28:F$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <f>IF(G$30&gt;=0.2*$A27,0,IF(SUM(G28:G$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <f>IF(H$30&gt;=0.2*$A27,0,IF(SUM(H28:H$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <f>IF(I$30&gt;=0.2*$A27,0,IF(SUM(I28:I$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <f>IF(J$30&gt;=0.2*$A27,0,IF(SUM(J28:J$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <f>IF(K$30&gt;=0.2*$A27,0,IF(SUM(K28:K$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <f>IF(L$30&gt;=0.2*$A27,0,IF(SUM(L28:L$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f>IF(M$30&gt;=0.2*$A27,0,IF(SUM(M28:M$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <f>IF(N$30&gt;=0.2*$A27,0,IF(SUM(N28:N$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f>IF(O$30&gt;=0.2*$A27,0,IF(SUM(O28:O$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f>IF(P$30&gt;=0.2*$A27,0,IF(SUM(P28:P$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>IF(Q$30&gt;=0.2*$A27,0,IF(SUM(Q28:Q$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <f>IF(R$30&gt;=0.2*$A27,0,IF(SUM(R28:R$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <f>IF(S$30&gt;=0.2*$A27,0,IF(SUM(S28:S$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <f>IF(T$30&gt;=0.2*$A27,0,IF(SUM(T28:T$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <f>IF(U$30&gt;=0.2*$A27,0,IF(SUM(U28:U$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <f>IF(V$30&gt;=0.2*$A27,0,IF(SUM(V28:V$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <f>IF(W$30&gt;=0.2*$A27,0,IF(SUM(W28:W$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <f>IF(X$30&gt;=0.2*$A27,0,IF(SUM(X28:X$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <f>IF(Y$30&gt;=0.2*$A27,0,IF(SUM(Y28:Y$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <f>IF(Z$30&gt;=0.2*$A27,0,IF(SUM(Z28:Z$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <f>IF(AA$30&gt;=0.2*$A27,0,IF(SUM(AA28:AA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <f>IF(AB$30&gt;=0.2*$A27,0,IF(SUM(AB28:AB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <f>IF(AC$30&gt;=0.2*$A27,0,IF(SUM(AC28:AC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>IF(AD$30&gt;=0.2*$A27,0,IF(SUM(AD28:AD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <f>IF(AE$30&gt;=0.2*$A27,0,IF(SUM(AE28:AE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <f>IF(AF$30&gt;=0.2*$A27,0,IF(SUM(AF28:AF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3">
+        <f>IF(AG$30&gt;=0.2*$A27,0,IF(SUM(AG28:AG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3">
+        <f>IF(AH$30&gt;=0.2*$A27,0,IF(SUM(AH28:AH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <f>IF(AI$30&gt;=0.2*$A27,0,IF(SUM(AI28:AI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A27,0,IF(SUM(AJ28:AJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3">
+        <f>IF(AK$30&gt;=0.2*$A27,0,IF(SUM(AK28:AK$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="3">
+        <f>IF(AL$30&gt;=0.2*$A27,0,IF(SUM(AL28:AL$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="3">
+        <f>IF(AM$30&gt;=0.2*$A27,0,IF(SUM(AM28:AM$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="3">
+        <f>IF(AN$30&gt;=0.2*$A27,0,IF(SUM(AN28:AN$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="3">
+        <f>IF(AO$30&gt;=0.2*$A27,0,IF(SUM(AO28:AO$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="3">
+        <f>IF(AP$30&gt;=0.2*$A27,0,IF(SUM(AP28:AP$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A27,0,IF(SUM(AQ28:AQ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="3">
+        <f>IF(AR$30&gt;=0.2*$A27,0,IF(SUM(AR28:AR$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS27" s="3">
+        <f>IF(AS$30&gt;=0.2*$A27,0,IF(SUM(AS28:AS$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT27" s="3">
+        <f>IF(AT$30&gt;=0.2*$A27,0,IF(SUM(AT28:AT$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU27" s="3">
+        <f>IF(AU$30&gt;=0.2*$A27,0,IF(SUM(AU28:AU$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="3">
+        <f>IF(AV$30&gt;=0.2*$A27,0,IF(SUM(AV28:AV$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW27" s="3">
+        <f>IF(AW$30&gt;=0.2*$A27,0,IF(SUM(AW28:AW$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX27" s="3">
+        <f>IF(AX$30&gt;=0.2*$A27,0,IF(SUM(AX28:AX$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="3">
+        <f>IF(AY$30&gt;=0.2*$A27,0,IF(SUM(AY28:AY$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A27,0,IF(SUM(AZ28:AZ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="3">
+        <f>IF(BA$30&gt;=0.2*$A27,0,IF(SUM(BA28:BA$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB27" s="3">
+        <f>IF(BB$30&gt;=0.2*$A27,0,IF(SUM(BB28:BB$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC27" s="3">
+        <f>IF(BC$30&gt;=0.2*$A27,0,IF(SUM(BC28:BC$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD27" s="3">
+        <f>IF(BD$30&gt;=0.2*$A27,0,IF(SUM(BD28:BD$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE27" s="3">
+        <f>IF(BE$30&gt;=0.2*$A27,0,IF(SUM(BE28:BE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF27" s="3">
+        <f>IF(BF$30&gt;=0.2*$A27,0,IF(SUM(BF28:BF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG27" s="3">
+        <f>IF(BG$30&gt;=0.2*$A27,0,IF(SUM(BG28:BG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH27" s="3">
+        <f>IF(BH$30&gt;=0.2*$A27,0,IF(SUM(BH28:BH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI27" s="3">
+        <f>IF(BI$30&gt;=0.2*$A27,0,IF(SUM(BI28:BI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A27,0,IF(SUM(BJ28:BJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <f>IF(B$30&gt;=0.2*$A28,0,IF(SUM(B29:B$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <f>IF(C$30&gt;=0.2*$A28,0,IF(SUM(C29:C$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <f>IF(D$30&gt;=0.2*$A28,0,IF(SUM(D29:D$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <f>IF(E$30&gt;=0.2*$A28,0,IF(SUM(E29:E$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <f>IF(F$30&gt;=0.2*$A28,0,IF(SUM(F29:F$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <f>IF(G$30&gt;=0.2*$A28,0,IF(SUM(G29:G$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <f>IF(H$30&gt;=0.2*$A28,0,IF(SUM(H29:H$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f>IF(I$30&gt;=0.2*$A28,0,IF(SUM(I29:I$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <f>IF(J$30&gt;=0.2*$A28,0,IF(SUM(J29:J$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <f>IF(K$30&gt;=0.2*$A28,0,IF(SUM(K29:K$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <f>IF(L$30&gt;=0.2*$A28,0,IF(SUM(L29:L$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f>IF(M$30&gt;=0.2*$A28,0,IF(SUM(M29:M$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <f>IF(N$30&gt;=0.2*$A28,0,IF(SUM(N29:N$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f>IF(O$30&gt;=0.2*$A28,0,IF(SUM(O29:O$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f>IF(P$30&gt;=0.2*$A28,0,IF(SUM(P29:P$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>IF(Q$30&gt;=0.2*$A28,0,IF(SUM(Q29:Q$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <f>IF(R$30&gt;=0.2*$A28,0,IF(SUM(R29:R$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <f>IF(S$30&gt;=0.2*$A28,0,IF(SUM(S29:S$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <f>IF(T$30&gt;=0.2*$A28,0,IF(SUM(T29:T$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <f>IF(U$30&gt;=0.2*$A28,0,IF(SUM(U29:U$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <f>IF(V$30&gt;=0.2*$A28,0,IF(SUM(V29:V$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <f>IF(W$30&gt;=0.2*$A28,0,IF(SUM(W29:W$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <f>IF(X$30&gt;=0.2*$A28,0,IF(SUM(X29:X$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <f>IF(Y$30&gt;=0.2*$A28,0,IF(SUM(Y29:Y$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <f>IF(Z$30&gt;=0.2*$A28,0,IF(SUM(Z29:Z$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>IF(AA$30&gt;=0.2*$A28,0,IF(SUM(AA29:AA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <f>IF(AB$30&gt;=0.2*$A28,0,IF(SUM(AB29:AB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <f>IF(AC$30&gt;=0.2*$A28,0,IF(SUM(AC29:AC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>IF(AD$30&gt;=0.2*$A28,0,IF(SUM(AD29:AD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>IF(AE$30&gt;=0.2*$A28,0,IF(SUM(AE29:AE$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <f>IF(AF$30&gt;=0.2*$A28,0,IF(SUM(AF29:AF$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <f>IF(AG$30&gt;=0.2*$A28,0,IF(SUM(AG29:AG$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>IF(AH$30&gt;=0.2*$A28,0,IF(SUM(AH29:AH$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <f>IF(AI$30&gt;=0.2*$A28,0,IF(SUM(AI29:AI$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A28,0,IF(SUM(AJ29:AJ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <f>IF(AK$30&gt;=0.2*$A28,0,IF(SUM(AK29:AK$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>IF(AL$30&gt;=0.2*$A28,0,IF(SUM(AL29:AL$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3">
+        <f>IF(AM$30&gt;=0.2*$A28,0,IF(SUM(AM29:AM$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="3">
+        <f>IF(AN$30&gt;=0.2*$A28,0,IF(SUM(AN29:AN$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3">
+        <f>IF(AO$30&gt;=0.2*$A28,0,IF(SUM(AO29:AO$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <f>IF(AP$30&gt;=0.2*$A28,0,IF(SUM(AP29:AP$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A28,0,IF(SUM(AQ29:AQ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="3">
+        <f>IF(AR$30&gt;=0.2*$A28,0,IF(SUM(AR29:AR$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3">
+        <f>IF(AS$30&gt;=0.2*$A28,0,IF(SUM(AS29:AS$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT28" s="3">
+        <f>IF(AT$30&gt;=0.2*$A28,0,IF(SUM(AT29:AT$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU28" s="3">
+        <f>IF(AU$30&gt;=0.2*$A28,0,IF(SUM(AU29:AU$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="3">
+        <f>IF(AV$30&gt;=0.2*$A28,0,IF(SUM(AV29:AV$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="3">
+        <f>IF(AW$30&gt;=0.2*$A28,0,IF(SUM(AW29:AW$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="3">
+        <f>IF(AX$30&gt;=0.2*$A28,0,IF(SUM(AX29:AX$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY28" s="3">
+        <f>IF(AY$30&gt;=0.2*$A28,0,IF(SUM(AY29:AY$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A28,0,IF(SUM(AZ29:AZ$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="3">
+        <f>IF(BA$30&gt;=0.2*$A28,0,IF(SUM(BA29:BA$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB28" s="3">
+        <f>IF(BB$30&gt;=0.2*$A28,0,IF(SUM(BB29:BB$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC28" s="3">
+        <f>IF(BC$30&gt;=0.2*$A28,0,IF(SUM(BC29:BC$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="3">
+        <f>IF(BD$30&gt;=0.2*$A28,0,IF(SUM(BD29:BD$29)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE28" s="3">
+        <f>IF(BE$30&gt;=0.2*$A28,0,IF(SUM(BE29:BE$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF28" s="3">
+        <f>IF(BF$30&gt;=0.2*$A28,0,IF(SUM(BF29:BF$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG28" s="3">
+        <f>IF(BG$30&gt;=0.2*$A28,0,IF(SUM(BG29:BG$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH28" s="3">
+        <f>IF(BH$30&gt;=0.2*$A28,0,IF(SUM(BH29:BH$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI28" s="3">
+        <f>IF(BI$30&gt;=0.2*$A28,0,IF(SUM(BI29:BI$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="3">
+        <f>IF(BJ$30&gt;=0.2*$A28,0,IF(SUM(BJ29:BJ$29)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" ref="B29:BJ29" si="0">IF(B$30&gt;=0.2*$A29,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BA29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BB29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BI29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <f>'Principal-B'!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <f>'Principal-B'!C8</f>
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="4">
+        <f>'Principal-B'!D8</f>
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="4">
+        <f>'Principal-B'!E8</f>
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="4">
+        <f>'Principal-B'!F8</f>
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="4">
+        <f>'Principal-B'!G8</f>
+        <v>0.3</v>
+      </c>
+      <c r="H30" s="4">
+        <f>'Principal-B'!H8</f>
+        <v>0.4</v>
+      </c>
+      <c r="I30" s="4">
+        <f>'Principal-B'!I8</f>
+        <v>0.4</v>
+      </c>
+      <c r="J30" s="4">
+        <f>'Principal-B'!J8</f>
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="4">
+        <f>'Principal-B'!K8</f>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="4">
+        <f>'Principal-B'!L8</f>
+        <v>0.6</v>
+      </c>
+      <c r="M30" s="4">
+        <f>'Principal-B'!M8</f>
+        <v>0.6</v>
+      </c>
+      <c r="N30" s="4">
+        <f>'Principal-B'!N8</f>
+        <v>0.6</v>
+      </c>
+      <c r="O30" s="4">
+        <f>'Principal-B'!O8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P30" s="4">
+        <f>'Principal-B'!P8</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>'Principal-B'!Q8</f>
+        <v>0.7</v>
+      </c>
+      <c r="R30" s="4">
+        <f>'Principal-B'!R8</f>
+        <v>0.8</v>
+      </c>
+      <c r="S30" s="4">
+        <f>'Principal-B'!S8</f>
+        <v>0.8</v>
+      </c>
+      <c r="T30" s="4">
+        <f>'Principal-B'!T8</f>
+        <v>0.8</v>
+      </c>
+      <c r="U30" s="4">
+        <f>'Principal-B'!U8</f>
+        <v>0.9</v>
+      </c>
+      <c r="V30" s="4">
+        <f>'Principal-B'!V8</f>
+        <v>0.9</v>
+      </c>
+      <c r="W30" s="4">
+        <f>'Principal-B'!W8</f>
+        <v>0.9</v>
+      </c>
+      <c r="X30" s="4">
+        <f>'Principal-B'!X8</f>
+        <v>0.9</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>'Principal-B'!Y8</f>
+        <v>0.9</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>'Principal-B'!Z8</f>
+        <v>1</v>
+      </c>
+      <c r="AA30" s="4">
+        <f>'Principal-B'!AA8</f>
+        <v>1</v>
+      </c>
+      <c r="AB30" s="4">
+        <f>'Principal-B'!AB8</f>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="4">
+        <f>'Principal-B'!AC8</f>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="4">
+        <f>'Principal-B'!AD8</f>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="4">
+        <f>'Principal-B'!AE8</f>
+        <v>1</v>
+      </c>
+      <c r="AF30" s="4">
+        <f>'Principal-B'!AF8</f>
+        <v>1</v>
+      </c>
+      <c r="AG30" s="4">
+        <f>'Principal-B'!AG8</f>
+        <v>1</v>
+      </c>
+      <c r="AH30" s="4">
+        <f>'Principal-B'!AH8</f>
+        <v>1</v>
+      </c>
+      <c r="AI30" s="4">
+        <f>'Principal-B'!AI8</f>
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="4">
+        <f>'Principal-B'!AJ8</f>
+        <v>1</v>
+      </c>
+      <c r="AK30" s="4">
+        <f>'Principal-B'!AK8</f>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="4">
+        <f>'Principal-B'!AL8</f>
+        <v>1</v>
+      </c>
+      <c r="AM30" s="4">
+        <f>'Principal-B'!AM8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AN30" s="4">
+        <f>'Principal-B'!AN8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AO30" s="4">
+        <f>'Principal-B'!AO8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AP30" s="4">
+        <f>'Principal-B'!AP8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AQ30" s="4">
+        <f>'Principal-B'!AQ8</f>
+        <v>0.9</v>
+      </c>
+      <c r="AR30" s="4">
+        <f>'Principal-B'!AR8</f>
+        <v>0.8</v>
+      </c>
+      <c r="AS30" s="4">
+        <f>'Principal-B'!AS8</f>
+        <v>0.8</v>
+      </c>
+      <c r="AT30" s="4">
+        <f>'Principal-B'!AT8</f>
+        <v>0.8</v>
+      </c>
+      <c r="AU30" s="4">
+        <f>'Principal-B'!AU8</f>
+        <v>0.7</v>
+      </c>
+      <c r="AV30" s="4">
+        <f>'Principal-B'!AV8</f>
+        <v>0.7</v>
+      </c>
+      <c r="AW30" s="4">
+        <f>'Principal-B'!AW8</f>
+        <v>0.7</v>
+      </c>
+      <c r="AX30" s="4">
+        <f>'Principal-B'!AX8</f>
+        <v>0.6</v>
+      </c>
+      <c r="AY30" s="4">
+        <f>'Principal-B'!AY8</f>
+        <v>0.6</v>
+      </c>
+      <c r="AZ30" s="4">
+        <f>'Principal-B'!AZ8</f>
+        <v>0.6</v>
+      </c>
+      <c r="BA30" s="4">
+        <f>'Principal-B'!BA8</f>
+        <v>0.5</v>
+      </c>
+      <c r="BB30" s="4">
+        <f>'Principal-B'!BB8</f>
+        <v>0.5</v>
+      </c>
+      <c r="BC30" s="4">
+        <f>'Principal-B'!BC8</f>
+        <v>0.4</v>
+      </c>
+      <c r="BD30" s="4">
+        <f>'Principal-B'!BD8</f>
+        <v>0.4</v>
+      </c>
+      <c r="BE30" s="4">
+        <f>'Principal-B'!BE8</f>
+        <v>0.3</v>
+      </c>
+      <c r="BF30" s="4">
+        <f>'Principal-B'!BF8</f>
+        <v>0.2</v>
+      </c>
+      <c r="BG30" s="4">
+        <f>'Principal-B'!BG8</f>
+        <v>0.2</v>
+      </c>
+      <c r="BH30" s="4">
+        <f>'Principal-B'!BH8</f>
+        <v>0.1</v>
+      </c>
+      <c r="BI30" s="4">
+        <f>'Principal-B'!BI8</f>
+        <v>0.1</v>
+      </c>
+      <c r="BJ30" s="4">
+        <f>'Principal-B'!BJ8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>-30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-29</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-28</v>
+      </c>
+      <c r="E34" s="4">
+        <v>-27</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-26</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-25</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-24</v>
+      </c>
+      <c r="I34" s="4">
+        <v>-23</v>
+      </c>
+      <c r="J34" s="4">
+        <v>-22</v>
+      </c>
+      <c r="K34" s="4">
+        <v>-21</v>
+      </c>
+      <c r="L34" s="4">
+        <v>-20</v>
+      </c>
+      <c r="M34" s="4">
+        <v>-19</v>
+      </c>
+      <c r="N34" s="4">
+        <v>-18</v>
+      </c>
+      <c r="O34" s="4">
+        <v>-17</v>
+      </c>
+      <c r="P34" s="4">
+        <v>-16</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>-15</v>
+      </c>
+      <c r="R34" s="4">
+        <v>-14</v>
+      </c>
+      <c r="S34" s="4">
+        <v>-13</v>
+      </c>
+      <c r="T34" s="4">
+        <v>-12</v>
+      </c>
+      <c r="U34" s="4">
+        <v>-11</v>
+      </c>
+      <c r="V34" s="4">
+        <v>-10</v>
+      </c>
+      <c r="W34" s="4">
+        <v>-9</v>
+      </c>
+      <c r="X34" s="4">
+        <v>-8</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>-7</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>-6</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>-5</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>-4</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>7</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>8</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>9</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>10</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>11</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>12</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>13</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>14</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>15</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>16</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>17</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>18</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>19</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>20</v>
+      </c>
+      <c r="BA34" s="4">
+        <v>21</v>
+      </c>
+      <c r="BB34" s="4">
+        <v>22</v>
+      </c>
+      <c r="BC34" s="4">
+        <v>23</v>
+      </c>
+      <c r="BD34" s="4">
+        <v>24</v>
+      </c>
+      <c r="BE34" s="4">
+        <v>25</v>
+      </c>
+      <c r="BF34" s="4">
+        <v>26</v>
+      </c>
+      <c r="BG34" s="4">
+        <v>27</v>
+      </c>
+      <c r="BH34" s="4">
+        <v>28</v>
+      </c>
+      <c r="BI34" s="4">
+        <v>29</v>
+      </c>
+      <c r="BJ34" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>11</v>
+      </c>
+      <c r="B35" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A35,0,IF(SUM(B$29:B36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A35,0,IF(SUM(C$29:C36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A35,0,IF(SUM(D$29:D36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A35,0,IF(SUM(E$29:E36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A35,0,IF(SUM(F$29:F36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A35,0,IF(SUM(G$29:G36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A35,0,IF(SUM(H$29:H36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A35,0,IF(SUM(I$29:I36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A35,0,IF(SUM(J$29:J36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A35,0,IF(SUM(K$29:K36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A35,0,IF(SUM(L$29:L36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A35,0,IF(SUM(M$29:M36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A35,0,IF(SUM(N$29:N36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A35,0,IF(SUM(O$29:O36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A35,0,IF(SUM(P$29:P36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A35,0,IF(SUM(Q$29:Q36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A35,0,IF(SUM(R$29:R36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A35,0,IF(SUM(S$29:S36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A35,0,IF(SUM(T$29:T36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A35,0,IF(SUM(U$29:U36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A35,0,IF(SUM(V$29:V36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A35,0,IF(SUM(W$29:W36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A35,0,IF(SUM(X$29:X36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A35,0,IF(SUM(Y$29:Y36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <f ca="1">IF(Z$30&gt;=0.2*$A35,0,IF(SUM(Z$29:Z36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <f ca="1">IF(AA$30&gt;=0.2*$A35,0,IF(SUM(AA$29:AA36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <f ca="1">IF(AB$30&gt;=0.2*$A35,0,IF(SUM(AB$29:AB36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <f ca="1">IF(AC$30&gt;=0.2*$A35,0,IF(SUM(AC$29:AC36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <f ca="1">IF(AD$30&gt;=0.2*$A35,0,IF(SUM(AD$29:AD36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <f ca="1">IF(AE$30&gt;=0.2*$A35,0,IF(SUM(AE$29:AE36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <f ca="1">IF(AF$30&gt;=0.2*$A35,0,IF(SUM(AF$29:AF36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3">
+        <f ca="1">IF(AG$30&gt;=0.2*$A35,0,IF(SUM(AG$29:AG36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3">
+        <f ca="1">IF(AH$30&gt;=0.2*$A35,0,IF(SUM(AH$29:AH36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <f ca="1">IF(AI$30&gt;=0.2*$A35,0,IF(SUM(AI$29:AI36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <f ca="1">IF(AJ$30&gt;=0.2*$A35,0,IF(SUM(AJ$29:AJ36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
+        <f ca="1">IF(AK$30&gt;=0.2*$A35,0,IF(SUM(AK$29:AK36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="3">
+        <f ca="1">IF(AL$30&gt;=0.2*$A35,0,IF(SUM(AL$29:AL36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A35,0,IF(SUM(AM$29:AM36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A35,0,IF(SUM(AN$29:AN36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A35,0,IF(SUM(AO$29:AO36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A35,0,IF(SUM(AP$29:AP36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A35,0,IF(SUM(AQ$29:AQ36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A35,0,IF(SUM(AR$29:AR36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS35" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A35,0,IF(SUM(AS$29:AS36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A35,0,IF(SUM(AT$29:AT36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU35" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A35,0,IF(SUM(AU$29:AU36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV35" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A35,0,IF(SUM(AV$29:AV36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW35" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A35,0,IF(SUM(AW$29:AW36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX35" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A35,0,IF(SUM(AX$29:AX36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY35" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A35,0,IF(SUM(AY$29:AY36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A35,0,IF(SUM(AZ$29:AZ36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A35,0,IF(SUM(BA$29:BA36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB35" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A35,0,IF(SUM(BB$29:BB36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC35" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A35,0,IF(SUM(BC$29:BC36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A35,0,IF(SUM(BD$29:BD36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A35,0,IF(SUM(BE$29:BE36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A35,0,IF(SUM(BF$29:BF36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A35,0,IF(SUM(BG$29:BG36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH35" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A35,0,IF(SUM(BH$29:BH36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI35" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A35,0,IF(SUM(BI$29:BI36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A35,0,IF(SUM(BJ$29:BJ36)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A36,0,IF(SUM(B$29:B37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A36,0,IF(SUM(C$29:C37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A36,0,IF(SUM(D$29:D37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A36,0,IF(SUM(E$29:E37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A36,0,IF(SUM(F$29:F37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A36,0,IF(SUM(G$29:G37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A36,0,IF(SUM(H$29:H37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A36,0,IF(SUM(I$29:I37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A36,0,IF(SUM(J$29:J37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A36,0,IF(SUM(K$29:K37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A36,0,IF(SUM(L$29:L37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A36,0,IF(SUM(M$29:M37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A36,0,IF(SUM(N$29:N37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A36,0,IF(SUM(O$29:O37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A36,0,IF(SUM(P$29:P37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A36,0,IF(SUM(Q$29:Q37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A36,0,IF(SUM(R$29:R37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A36,0,IF(SUM(S$29:S37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A36,0,IF(SUM(T$29:T37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A36,0,IF(SUM(U$29:U37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A36,0,IF(SUM(V$29:V37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A36,0,IF(SUM(W$29:W37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A36,0,IF(SUM(X$29:X37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A36,0,IF(SUM(Y$29:Y37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <f ca="1">IF(Z$30&gt;=0.2*$A36,0,IF(SUM(Z$29:Z37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="3">
+        <f ca="1">IF(AA$30&gt;=0.2*$A36,0,IF(SUM(AA$29:AA37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB36" s="3">
+        <f ca="1">IF(AB$30&gt;=0.2*$A36,0,IF(SUM(AB$29:AB37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="3">
+        <f ca="1">IF(AC$30&gt;=0.2*$A36,0,IF(SUM(AC$29:AC37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="3">
+        <f ca="1">IF(AD$30&gt;=0.2*$A36,0,IF(SUM(AD$29:AD37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE36" s="3">
+        <f ca="1">IF(AE$30&gt;=0.2*$A36,0,IF(SUM(AE$29:AE37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3">
+        <f ca="1">IF(AF$30&gt;=0.2*$A36,0,IF(SUM(AF$29:AF37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG36" s="3">
+        <f ca="1">IF(AG$30&gt;=0.2*$A36,0,IF(SUM(AG$29:AG37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3">
+        <f ca="1">IF(AH$30&gt;=0.2*$A36,0,IF(SUM(AH$29:AH37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3">
+        <f ca="1">IF(AI$30&gt;=0.2*$A36,0,IF(SUM(AI$29:AI37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="3">
+        <f ca="1">IF(AJ$30&gt;=0.2*$A36,0,IF(SUM(AJ$29:AJ37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK36" s="3">
+        <f ca="1">IF(AK$30&gt;=0.2*$A36,0,IF(SUM(AK$29:AK37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL36" s="3">
+        <f ca="1">IF(AL$30&gt;=0.2*$A36,0,IF(SUM(AL$29:AL37)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM36" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A36,0,IF(SUM(AM$29:AM37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A36,0,IF(SUM(AN$29:AN37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A36,0,IF(SUM(AO$29:AO37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A36,0,IF(SUM(AP$29:AP37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A36,0,IF(SUM(AQ$29:AQ37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A36,0,IF(SUM(AR$29:AR37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS36" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A36,0,IF(SUM(AS$29:AS37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A36,0,IF(SUM(AT$29:AT37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU36" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A36,0,IF(SUM(AU$29:AU37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A36,0,IF(SUM(AV$29:AV37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW36" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A36,0,IF(SUM(AW$29:AW37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX36" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A36,0,IF(SUM(AX$29:AX37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY36" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A36,0,IF(SUM(AY$29:AY37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A36,0,IF(SUM(AZ$29:AZ37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA36" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A36,0,IF(SUM(BA$29:BA37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB36" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A36,0,IF(SUM(BB$29:BB37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC36" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A36,0,IF(SUM(BC$29:BC37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A36,0,IF(SUM(BD$29:BD37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A36,0,IF(SUM(BE$29:BE37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A36,0,IF(SUM(BF$29:BF37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A36,0,IF(SUM(BG$29:BG37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH36" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A36,0,IF(SUM(BH$29:BH37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI36" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A36,0,IF(SUM(BI$29:BI37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A36,0,IF(SUM(BJ$29:BJ37)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A37,0,IF(SUM(B$29:B38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A37,0,IF(SUM(C$29:C38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A37,0,IF(SUM(D$29:D38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A37,0,IF(SUM(E$29:E38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A37,0,IF(SUM(F$29:F38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A37,0,IF(SUM(G$29:G38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A37,0,IF(SUM(H$29:H38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A37,0,IF(SUM(I$29:I38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A37,0,IF(SUM(J$29:J38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A37,0,IF(SUM(K$29:K38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A37,0,IF(SUM(L$29:L38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A37,0,IF(SUM(M$29:M38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A37,0,IF(SUM(N$29:N38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A37,0,IF(SUM(O$29:O38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A37,0,IF(SUM(P$29:P38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A37,0,IF(SUM(Q$29:Q38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A37,0,IF(SUM(R$29:R38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S37" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A37,0,IF(SUM(S$29:S38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A37,0,IF(SUM(T$29:T38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U37" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A37,0,IF(SUM(U$29:U38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V37" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A37,0,IF(SUM(V$29:V38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A37,0,IF(SUM(W$29:W38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X37" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A37,0,IF(SUM(X$29:X38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A37,0,IF(SUM(Y$29:Y38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="3">
+        <f ca="1">IF(Z$30&gt;=0.2*$A37,0,IF(SUM(Z$29:Z38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="3">
+        <f ca="1">IF(AA$30&gt;=0.2*$A37,0,IF(SUM(AA$29:AA38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB37" s="3">
+        <f ca="1">IF(AB$30&gt;=0.2*$A37,0,IF(SUM(AB$29:AB38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC37" s="3">
+        <f ca="1">IF(AC$30&gt;=0.2*$A37,0,IF(SUM(AC$29:AC38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD37" s="3">
+        <f ca="1">IF(AD$30&gt;=0.2*$A37,0,IF(SUM(AD$29:AD38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE37" s="3">
+        <f ca="1">IF(AE$30&gt;=0.2*$A37,0,IF(SUM(AE$29:AE38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3">
+        <f ca="1">IF(AF$30&gt;=0.2*$A37,0,IF(SUM(AF$29:AF38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="3">
+        <f ca="1">IF(AG$30&gt;=0.2*$A37,0,IF(SUM(AG$29:AG38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH37" s="3">
+        <f ca="1">IF(AH$30&gt;=0.2*$A37,0,IF(SUM(AH$29:AH38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="3">
+        <f ca="1">IF(AI$30&gt;=0.2*$A37,0,IF(SUM(AI$29:AI38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="3">
+        <f ca="1">IF(AJ$30&gt;=0.2*$A37,0,IF(SUM(AJ$29:AJ38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK37" s="3">
+        <f ca="1">IF(AK$30&gt;=0.2*$A37,0,IF(SUM(AK$29:AK38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL37" s="3">
+        <f ca="1">IF(AL$30&gt;=0.2*$A37,0,IF(SUM(AL$29:AL38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM37" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A37,0,IF(SUM(AM$29:AM38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN37" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A37,0,IF(SUM(AN$29:AN38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO37" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A37,0,IF(SUM(AO$29:AO38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP37" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A37,0,IF(SUM(AP$29:AP38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A37,0,IF(SUM(AQ$29:AQ38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR37" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A37,0,IF(SUM(AR$29:AR38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS37" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A37,0,IF(SUM(AS$29:AS38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT37" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A37,0,IF(SUM(AT$29:AT38)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU37" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A37,0,IF(SUM(AU$29:AU38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV37" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A37,0,IF(SUM(AV$29:AV38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW37" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A37,0,IF(SUM(AW$29:AW38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX37" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A37,0,IF(SUM(AX$29:AX38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY37" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A37,0,IF(SUM(AY$29:AY38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A37,0,IF(SUM(AZ$29:AZ38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A37,0,IF(SUM(BA$29:BA38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB37" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A37,0,IF(SUM(BB$29:BB38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC37" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A37,0,IF(SUM(BC$29:BC38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A37,0,IF(SUM(BD$29:BD38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A37,0,IF(SUM(BE$29:BE38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A37,0,IF(SUM(BF$29:BF38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A37,0,IF(SUM(BG$29:BG38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH37" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A37,0,IF(SUM(BH$29:BH38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI37" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A37,0,IF(SUM(BI$29:BI38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A37,0,IF(SUM(BJ$29:BJ38)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A38,0,IF(SUM(B$29:B39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A38,0,IF(SUM(C$29:C39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A38,0,IF(SUM(D$29:D39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A38,0,IF(SUM(E$29:E39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A38,0,IF(SUM(F$29:F39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A38,0,IF(SUM(G$29:G39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A38,0,IF(SUM(H$29:H39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A38,0,IF(SUM(I$29:I39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A38,0,IF(SUM(J$29:J39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A38,0,IF(SUM(K$29:K39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A38,0,IF(SUM(L$29:L39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A38,0,IF(SUM(M$29:M39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A38,0,IF(SUM(N$29:N39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A38,0,IF(SUM(O$29:O39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P38" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A38,0,IF(SUM(P$29:P39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A38,0,IF(SUM(Q$29:Q39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R38" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A38,0,IF(SUM(R$29:R39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S38" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A38,0,IF(SUM(S$29:S39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T38" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A38,0,IF(SUM(T$29:T39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U38" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A38,0,IF(SUM(U$29:U39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V38" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A38,0,IF(SUM(V$29:V39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W38" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A38,0,IF(SUM(W$29:W39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X38" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A38,0,IF(SUM(X$29:X39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A38,0,IF(SUM(Y$29:Y39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z38" s="3">
+        <f ca="1">IF(Z$30&gt;=0.2*$A38,0,IF(SUM(Z$29:Z39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA38" s="3">
+        <f ca="1">IF(AA$30&gt;=0.2*$A38,0,IF(SUM(AA$29:AA39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB38" s="3">
+        <f ca="1">IF(AB$30&gt;=0.2*$A38,0,IF(SUM(AB$29:AB39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC38" s="3">
+        <f ca="1">IF(AC$30&gt;=0.2*$A38,0,IF(SUM(AC$29:AC39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3">
+        <f ca="1">IF(AD$30&gt;=0.2*$A38,0,IF(SUM(AD$29:AD39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE38" s="3">
+        <f ca="1">IF(AE$30&gt;=0.2*$A38,0,IF(SUM(AE$29:AE39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF38" s="3">
+        <f ca="1">IF(AF$30&gt;=0.2*$A38,0,IF(SUM(AF$29:AF39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG38" s="3">
+        <f ca="1">IF(AG$30&gt;=0.2*$A38,0,IF(SUM(AG$29:AG39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH38" s="3">
+        <f ca="1">IF(AH$30&gt;=0.2*$A38,0,IF(SUM(AH$29:AH39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI38" s="3">
+        <f ca="1">IF(AI$30&gt;=0.2*$A38,0,IF(SUM(AI$29:AI39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="3">
+        <f ca="1">IF(AJ$30&gt;=0.2*$A38,0,IF(SUM(AJ$29:AJ39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK38" s="3">
+        <f ca="1">IF(AK$30&gt;=0.2*$A38,0,IF(SUM(AK$29:AK39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL38" s="3">
+        <f ca="1">IF(AL$30&gt;=0.2*$A38,0,IF(SUM(AL$29:AL39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM38" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A38,0,IF(SUM(AM$29:AM39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN38" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A38,0,IF(SUM(AN$29:AN39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO38" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A38,0,IF(SUM(AO$29:AO39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP38" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A38,0,IF(SUM(AP$29:AP39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A38,0,IF(SUM(AQ$29:AQ39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR38" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A38,0,IF(SUM(AR$29:AR39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS38" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A38,0,IF(SUM(AS$29:AS39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT38" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A38,0,IF(SUM(AT$29:AT39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU38" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A38,0,IF(SUM(AU$29:AU39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV38" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A38,0,IF(SUM(AV$29:AV39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW38" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A38,0,IF(SUM(AW$29:AW39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX38" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A38,0,IF(SUM(AX$29:AX39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY38" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A38,0,IF(SUM(AY$29:AY39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A38,0,IF(SUM(AZ$29:AZ39)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA38" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A38,0,IF(SUM(BA$29:BA39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB38" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A38,0,IF(SUM(BB$29:BB39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC38" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A38,0,IF(SUM(BC$29:BC39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD38" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A38,0,IF(SUM(BD$29:BD39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A38,0,IF(SUM(BE$29:BE39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF38" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A38,0,IF(SUM(BF$29:BF39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG38" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A38,0,IF(SUM(BG$29:BG39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH38" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A38,0,IF(SUM(BH$29:BH39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI38" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A38,0,IF(SUM(BI$29:BI39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ38" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A38,0,IF(SUM(BJ$29:BJ39)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A39,0,IF(SUM(B$29:B40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A39,0,IF(SUM(C$29:C40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A39,0,IF(SUM(D$29:D40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A39,0,IF(SUM(E$29:E40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A39,0,IF(SUM(F$29:F40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A39,0,IF(SUM(G$29:G40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A39,0,IF(SUM(H$29:H40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A39,0,IF(SUM(I$29:I40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A39,0,IF(SUM(J$29:J40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A39,0,IF(SUM(K$29:K40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A39,0,IF(SUM(L$29:L40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A39,0,IF(SUM(M$29:M40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A39,0,IF(SUM(N$29:N40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A39,0,IF(SUM(O$29:O40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P39" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A39,0,IF(SUM(P$29:P40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A39,0,IF(SUM(Q$29:Q40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A39,0,IF(SUM(R$29:R40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S39" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A39,0,IF(SUM(S$29:S40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T39" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A39,0,IF(SUM(T$29:T40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U39" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A39,0,IF(SUM(U$29:U40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V39" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A39,0,IF(SUM(V$29:V40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W39" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A39,0,IF(SUM(W$29:W40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X39" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A39,0,IF(SUM(X$29:X40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A39,0,IF(SUM(Y$29:Y40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z39" s="3">
+        <f ca="1">IF(Z$30&gt;=0.2*$A39,0,IF(SUM(Z$29:Z40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA39" s="3">
+        <f ca="1">IF(AA$30&gt;=0.2*$A39,0,IF(SUM(AA$29:AA40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3">
+        <f ca="1">IF(AB$30&gt;=0.2*$A39,0,IF(SUM(AB$29:AB40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC39" s="3">
+        <f ca="1">IF(AC$30&gt;=0.2*$A39,0,IF(SUM(AC$29:AC40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD39" s="3">
+        <f ca="1">IF(AD$30&gt;=0.2*$A39,0,IF(SUM(AD$29:AD40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE39" s="3">
+        <f ca="1">IF(AE$30&gt;=0.2*$A39,0,IF(SUM(AE$29:AE40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF39" s="3">
+        <f ca="1">IF(AF$30&gt;=0.2*$A39,0,IF(SUM(AF$29:AF40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG39" s="3">
+        <f ca="1">IF(AG$30&gt;=0.2*$A39,0,IF(SUM(AG$29:AG40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH39" s="3">
+        <f ca="1">IF(AH$30&gt;=0.2*$A39,0,IF(SUM(AH$29:AH40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI39" s="3">
+        <f ca="1">IF(AI$30&gt;=0.2*$A39,0,IF(SUM(AI$29:AI40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="3">
+        <f ca="1">IF(AJ$30&gt;=0.2*$A39,0,IF(SUM(AJ$29:AJ40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK39" s="3">
+        <f ca="1">IF(AK$30&gt;=0.2*$A39,0,IF(SUM(AK$29:AK40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL39" s="3">
+        <f ca="1">IF(AL$30&gt;=0.2*$A39,0,IF(SUM(AL$29:AL40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM39" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A39,0,IF(SUM(AM$29:AM40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN39" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A39,0,IF(SUM(AN$29:AN40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO39" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A39,0,IF(SUM(AO$29:AO40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP39" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A39,0,IF(SUM(AP$29:AP40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A39,0,IF(SUM(AQ$29:AQ40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR39" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A39,0,IF(SUM(AR$29:AR40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS39" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A39,0,IF(SUM(AS$29:AS40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT39" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A39,0,IF(SUM(AT$29:AT40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU39" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A39,0,IF(SUM(AU$29:AU40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV39" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A39,0,IF(SUM(AV$29:AV40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW39" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A39,0,IF(SUM(AW$29:AW40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX39" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A39,0,IF(SUM(AX$29:AX40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY39" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A39,0,IF(SUM(AY$29:AY40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A39,0,IF(SUM(AZ$29:AZ40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA39" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A39,0,IF(SUM(BA$29:BA40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB39" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A39,0,IF(SUM(BB$29:BB40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC39" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A39,0,IF(SUM(BC$29:BC40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD39" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A39,0,IF(SUM(BD$29:BD40)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE39" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A39,0,IF(SUM(BE$29:BE40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BF39" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A39,0,IF(SUM(BF$29:BF40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BG39" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A39,0,IF(SUM(BG$29:BG40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BH39" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A39,0,IF(SUM(BH$29:BH40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI39" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A39,0,IF(SUM(BI$29:BI40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ39" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A39,0,IF(SUM(BJ$29:BJ40)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A40,0,IF(SUM(B$29:B41)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A40,0,IF(SUM(C$29:C41)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A40,0,IF(SUM(D$29:D41)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A40,0,IF(SUM(E$29:E41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A40,0,IF(SUM(F$29:F41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A40,0,IF(SUM(G$29:G41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A40,0,IF(SUM(H$29:H41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A40,0,IF(SUM(I$29:I41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A40,0,IF(SUM(J$29:J41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A40,0,IF(SUM(K$29:K41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A40,0,IF(SUM(L$29:L41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A40,0,IF(SUM(M$29:M41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A40,0,IF(SUM(N$29:N41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A40,0,IF(SUM(O$29:O41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P40" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A40,0,IF(SUM(P$29:P41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q40" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A40,0,IF(SUM(Q$29:Q41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R40" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A40,0,IF(SUM(R$29:R41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S40" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A40,0,IF(SUM(S$29:S41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T40" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A40,0,IF(SUM(T$29:T41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U40" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A40,0,IF(SUM(U$29:U41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V40" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A40,0,IF(SUM(V$29:V41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W40" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A40,0,IF(SUM(W$29:W41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X40" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A40,0,IF(SUM(X$29:X41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y40" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A40,0,IF(SUM(Y$29:Y41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z40" s="3">
+        <f ca="1">IF(Z$30&gt;=0.2*$A40,0,IF(SUM(Z$29:Z41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3">
+        <f ca="1">IF(AA$30&gt;=0.2*$A40,0,IF(SUM(AA$29:AA41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AB40" s="3">
+        <f ca="1">IF(AB$30&gt;=0.2*$A40,0,IF(SUM(AB$29:AB41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="3">
+        <f ca="1">IF(AC$30&gt;=0.2*$A40,0,IF(SUM(AC$29:AC41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AD40" s="3">
+        <f ca="1">IF(AD$30&gt;=0.2*$A40,0,IF(SUM(AD$29:AD41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AE40" s="3">
+        <f ca="1">IF(AE$30&gt;=0.2*$A40,0,IF(SUM(AE$29:AE41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AF40" s="3">
+        <f ca="1">IF(AF$30&gt;=0.2*$A40,0,IF(SUM(AF$29:AF41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AG40" s="3">
+        <f ca="1">IF(AG$30&gt;=0.2*$A40,0,IF(SUM(AG$29:AG41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AH40" s="3">
+        <f ca="1">IF(AH$30&gt;=0.2*$A40,0,IF(SUM(AH$29:AH41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AI40" s="3">
+        <f ca="1">IF(AI$30&gt;=0.2*$A40,0,IF(SUM(AI$29:AI41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="3">
+        <f ca="1">IF(AJ$30&gt;=0.2*$A40,0,IF(SUM(AJ$29:AJ41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AK40" s="3">
+        <f ca="1">IF(AK$30&gt;=0.2*$A40,0,IF(SUM(AK$29:AK41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AL40" s="3">
+        <f ca="1">IF(AL$30&gt;=0.2*$A40,0,IF(SUM(AL$29:AL41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AM40" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A40,0,IF(SUM(AM$29:AM41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN40" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A40,0,IF(SUM(AN$29:AN41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO40" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A40,0,IF(SUM(AO$29:AO41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP40" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A40,0,IF(SUM(AP$29:AP41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A40,0,IF(SUM(AQ$29:AQ41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR40" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A40,0,IF(SUM(AR$29:AR41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS40" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A40,0,IF(SUM(AS$29:AS41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT40" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A40,0,IF(SUM(AT$29:AT41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU40" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A40,0,IF(SUM(AU$29:AU41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV40" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A40,0,IF(SUM(AV$29:AV41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW40" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A40,0,IF(SUM(AW$29:AW41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX40" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A40,0,IF(SUM(AX$29:AX41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY40" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A40,0,IF(SUM(AY$29:AY41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A40,0,IF(SUM(AZ$29:AZ41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA40" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A40,0,IF(SUM(BA$29:BA41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB40" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A40,0,IF(SUM(BB$29:BB41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC40" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A40,0,IF(SUM(BC$29:BC41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD40" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A40,0,IF(SUM(BD$29:BD41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE40" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A40,0,IF(SUM(BE$29:BE41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF40" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A40,0,IF(SUM(BF$29:BF41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG40" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A40,0,IF(SUM(BG$29:BG41)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH40" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A40,0,IF(SUM(BH$29:BH41)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BI40" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A40,0,IF(SUM(BI$29:BI41)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A40,0,IF(SUM(BJ$29:BJ41)=5,0,1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A41,0,IF(SUM(B$29:B42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A41,0,IF(SUM(C$29:C42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A41,0,IF(SUM(D$29:D42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A41,0,IF(SUM(E$29:E42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A41,0,IF(SUM(F$29:F42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A41,0,IF(SUM(G$29:G42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A41,0,IF(SUM(H$29:H42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A41,0,IF(SUM(I$29:I42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A41,0,IF(SUM(J$29:J42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A41,0,IF(SUM(K$29:K42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A41,0,IF(SUM(L$29:L42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A41,0,IF(SUM(M$29:M42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A41,0,IF(SUM(N$29:N42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A41,0,IF(SUM(O$29:O42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P41" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A41,0,IF(SUM(P$29:P42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A41,0,IF(SUM(Q$29:Q42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R41" s="3">
+        <f ca="1">IF(R$30&gt;=0.2*$A41,0,IF(SUM(R$29:R42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="S41" s="3">
+        <f ca="1">IF(S$30&gt;=0.2*$A41,0,IF(SUM(S$29:S42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="T41" s="3">
+        <f ca="1">IF(T$30&gt;=0.2*$A41,0,IF(SUM(T$29:T42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="U41" s="3">
+        <f ca="1">IF(U$30&gt;=0.2*$A41,0,IF(SUM(U$29:U42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <f ca="1">IF(V$30&gt;=0.2*$A41,0,IF(SUM(V$29:V42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="3">
+        <f ca="1">IF(W$30&gt;=0.2*$A41,0,IF(SUM(W$29:W42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="3">
+        <f ca="1">IF(X$30&gt;=0.2*$A41,0,IF(SUM(X$29:X42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="3">
+        <f ca="1">IF(Y$30&gt;=0.2*$A41,0,IF(SUM(Y$29:Y42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Z41" s="3">
+        <f>IF(Z$30&gt;=0.2*$A41,0,IF(SUM(Z$29:Z42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <f>IF(AA$30&gt;=0.2*$A41,0,IF(SUM(AA$29:AA42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <f>IF(AB$30&gt;=0.2*$A41,0,IF(SUM(AB$29:AB42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <f>IF(AC$30&gt;=0.2*$A41,0,IF(SUM(AC$29:AC42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <f>IF(AD$30&gt;=0.2*$A41,0,IF(SUM(AD$29:AD42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <f>IF(AE$30&gt;=0.2*$A41,0,IF(SUM(AE$29:AE42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <f>IF(AF$30&gt;=0.2*$A41,0,IF(SUM(AF$29:AF42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
+        <f>IF(AG$30&gt;=0.2*$A41,0,IF(SUM(AG$29:AG42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3">
+        <f>IF(AH$30&gt;=0.2*$A41,0,IF(SUM(AH$29:AH42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <f>IF(AI$30&gt;=0.2*$A41,0,IF(SUM(AI$29:AI42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A41,0,IF(SUM(AJ$29:AJ42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3">
+        <f>IF(AK$30&gt;=0.2*$A41,0,IF(SUM(AK$29:AK42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL41" s="3">
+        <f>IF(AL$30&gt;=0.2*$A41,0,IF(SUM(AL$29:AL42)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="3">
+        <f ca="1">IF(AM$30&gt;=0.2*$A41,0,IF(SUM(AM$29:AM42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AN41" s="3">
+        <f ca="1">IF(AN$30&gt;=0.2*$A41,0,IF(SUM(AN$29:AN42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AO41" s="3">
+        <f ca="1">IF(AO$30&gt;=0.2*$A41,0,IF(SUM(AO$29:AO42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AP41" s="3">
+        <f ca="1">IF(AP$30&gt;=0.2*$A41,0,IF(SUM(AP$29:AP42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="3">
+        <f ca="1">IF(AQ$30&gt;=0.2*$A41,0,IF(SUM(AQ$29:AQ42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AR41" s="3">
+        <f ca="1">IF(AR$30&gt;=0.2*$A41,0,IF(SUM(AR$29:AR42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AS41" s="3">
+        <f ca="1">IF(AS$30&gt;=0.2*$A41,0,IF(SUM(AS$29:AS42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AT41" s="3">
+        <f ca="1">IF(AT$30&gt;=0.2*$A41,0,IF(SUM(AT$29:AT42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AU41" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A41,0,IF(SUM(AU$29:AU42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV41" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A41,0,IF(SUM(AV$29:AV42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW41" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A41,0,IF(SUM(AW$29:AW42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX41" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A41,0,IF(SUM(AX$29:AX42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY41" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A41,0,IF(SUM(AY$29:AY42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A41,0,IF(SUM(AZ$29:AZ42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA41" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A41,0,IF(SUM(BA$29:BA42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB41" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A41,0,IF(SUM(BB$29:BB42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC41" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A41,0,IF(SUM(BC$29:BC42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD41" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A41,0,IF(SUM(BD$29:BD42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE41" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A41,0,IF(SUM(BE$29:BE42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF41" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A41,0,IF(SUM(BF$29:BF42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG41" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A41,0,IF(SUM(BG$29:BG42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH41" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A41,0,IF(SUM(BH$29:BH42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI41" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A41,0,IF(SUM(BI$29:BI42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A41,0,IF(SUM(BJ$29:BJ42)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A42,0,IF(SUM(B$29:B43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A42,0,IF(SUM(C$29:C43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A42,0,IF(SUM(D$29:D43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A42,0,IF(SUM(E$29:E43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A42,0,IF(SUM(F$29:F43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A42,0,IF(SUM(G$29:G43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A42,0,IF(SUM(H$29:H43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A42,0,IF(SUM(I$29:I43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A42,0,IF(SUM(J$29:J43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A42,0,IF(SUM(K$29:K43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <f ca="1">IF(L$30&gt;=0.2*$A42,0,IF(SUM(L$29:L43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <f ca="1">IF(M$30&gt;=0.2*$A42,0,IF(SUM(M$29:M43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="3">
+        <f ca="1">IF(N$30&gt;=0.2*$A42,0,IF(SUM(N$29:N43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <f ca="1">IF(O$30&gt;=0.2*$A42,0,IF(SUM(O$29:O43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="P42" s="3">
+        <f ca="1">IF(P$30&gt;=0.2*$A42,0,IF(SUM(P$29:P43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="3">
+        <f ca="1">IF(Q$30&gt;=0.2*$A42,0,IF(SUM(Q$29:Q43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="R42" s="3">
+        <f>IF(R$30&gt;=0.2*$A42,0,IF(SUM(R$29:R43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <f>IF(S$30&gt;=0.2*$A42,0,IF(SUM(S$29:S43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <f>IF(T$30&gt;=0.2*$A42,0,IF(SUM(T$29:T43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <f>IF(U$30&gt;=0.2*$A42,0,IF(SUM(U$29:U43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <f>IF(V$30&gt;=0.2*$A42,0,IF(SUM(V$29:V43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <f>IF(W$30&gt;=0.2*$A42,0,IF(SUM(W$29:W43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <f>IF(X$30&gt;=0.2*$A42,0,IF(SUM(X$29:X43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <f>IF(Y$30&gt;=0.2*$A42,0,IF(SUM(Y$29:Y43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <f>IF(Z$30&gt;=0.2*$A42,0,IF(SUM(Z$29:Z43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <f>IF(AA$30&gt;=0.2*$A42,0,IF(SUM(AA$29:AA43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <f>IF(AB$30&gt;=0.2*$A42,0,IF(SUM(AB$29:AB43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <f>IF(AC$30&gt;=0.2*$A42,0,IF(SUM(AC$29:AC43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <f>IF(AD$30&gt;=0.2*$A42,0,IF(SUM(AD$29:AD43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <f>IF(AE$30&gt;=0.2*$A42,0,IF(SUM(AE$29:AE43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <f>IF(AF$30&gt;=0.2*$A42,0,IF(SUM(AF$29:AF43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <f>IF(AG$30&gt;=0.2*$A42,0,IF(SUM(AG$29:AG43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3">
+        <f>IF(AH$30&gt;=0.2*$A42,0,IF(SUM(AH$29:AH43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <f>IF(AI$30&gt;=0.2*$A42,0,IF(SUM(AI$29:AI43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A42,0,IF(SUM(AJ$29:AJ43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK42" s="3">
+        <f>IF(AK$30&gt;=0.2*$A42,0,IF(SUM(AK$29:AK43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="3">
+        <f>IF(AL$30&gt;=0.2*$A42,0,IF(SUM(AL$29:AL43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="3">
+        <f>IF(AM$30&gt;=0.2*$A42,0,IF(SUM(AM$29:AM43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3">
+        <f>IF(AN$30&gt;=0.2*$A42,0,IF(SUM(AN$29:AN43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="3">
+        <f>IF(AO$30&gt;=0.2*$A42,0,IF(SUM(AO$29:AO43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="3">
+        <f>IF(AP$30&gt;=0.2*$A42,0,IF(SUM(AP$29:AP43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A42,0,IF(SUM(AQ$29:AQ43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="3">
+        <f>IF(AR$30&gt;=0.2*$A42,0,IF(SUM(AR$29:AR43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS42" s="3">
+        <f>IF(AS$30&gt;=0.2*$A42,0,IF(SUM(AS$29:AS43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="3">
+        <f>IF(AT$30&gt;=0.2*$A42,0,IF(SUM(AT$29:AT43)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU42" s="3">
+        <f ca="1">IF(AU$30&gt;=0.2*$A42,0,IF(SUM(AU$29:AU43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AV42" s="3">
+        <f ca="1">IF(AV$30&gt;=0.2*$A42,0,IF(SUM(AV$29:AV43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AW42" s="3">
+        <f ca="1">IF(AW$30&gt;=0.2*$A42,0,IF(SUM(AW$29:AW43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AX42" s="3">
+        <f ca="1">IF(AX$30&gt;=0.2*$A42,0,IF(SUM(AX$29:AX43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AY42" s="3">
+        <f ca="1">IF(AY$30&gt;=0.2*$A42,0,IF(SUM(AY$29:AY43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="3">
+        <f ca="1">IF(AZ$30&gt;=0.2*$A42,0,IF(SUM(AZ$29:AZ43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BA42" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A42,0,IF(SUM(BA$29:BA43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB42" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A42,0,IF(SUM(BB$29:BB43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC42" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A42,0,IF(SUM(BC$29:BC43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD42" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A42,0,IF(SUM(BD$29:BD43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE42" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A42,0,IF(SUM(BE$29:BE43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF42" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A42,0,IF(SUM(BF$29:BF43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG42" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A42,0,IF(SUM(BG$29:BG43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH42" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A42,0,IF(SUM(BH$29:BH43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI42" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A42,0,IF(SUM(BI$29:BI43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ42" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A42,0,IF(SUM(BJ$29:BJ43)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A43,0,IF(SUM(B$29:B44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A43,0,IF(SUM(C$29:C44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A43,0,IF(SUM(D$29:D44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A43,0,IF(SUM(E$29:E44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A43,0,IF(SUM(F$29:F44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A43,0,IF(SUM(G$29:G44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <f ca="1">IF(H$30&gt;=0.2*$A43,0,IF(SUM(H$29:H44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <f ca="1">IF(I$30&gt;=0.2*$A43,0,IF(SUM(I$29:I44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <f ca="1">IF(J$30&gt;=0.2*$A43,0,IF(SUM(J$29:J44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <f ca="1">IF(K$30&gt;=0.2*$A43,0,IF(SUM(K$29:K44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <f>IF(L$30&gt;=0.2*$A43,0,IF(SUM(L$29:L44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <f>IF(M$30&gt;=0.2*$A43,0,IF(SUM(M$29:M44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <f>IF(N$30&gt;=0.2*$A43,0,IF(SUM(N$29:N44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <f>IF(O$30&gt;=0.2*$A43,0,IF(SUM(O$29:O44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <f>IF(P$30&gt;=0.2*$A43,0,IF(SUM(P$29:P44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <f>IF(Q$30&gt;=0.2*$A43,0,IF(SUM(Q$29:Q44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <f>IF(R$30&gt;=0.2*$A43,0,IF(SUM(R$29:R44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <f>IF(S$30&gt;=0.2*$A43,0,IF(SUM(S$29:S44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <f>IF(T$30&gt;=0.2*$A43,0,IF(SUM(T$29:T44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <f>IF(U$30&gt;=0.2*$A43,0,IF(SUM(U$29:U44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <f>IF(V$30&gt;=0.2*$A43,0,IF(SUM(V$29:V44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <f>IF(W$30&gt;=0.2*$A43,0,IF(SUM(W$29:W44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <f>IF(X$30&gt;=0.2*$A43,0,IF(SUM(X$29:X44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <f>IF(Y$30&gt;=0.2*$A43,0,IF(SUM(Y$29:Y44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <f>IF(Z$30&gt;=0.2*$A43,0,IF(SUM(Z$29:Z44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <f>IF(AA$30&gt;=0.2*$A43,0,IF(SUM(AA$29:AA44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <f>IF(AB$30&gt;=0.2*$A43,0,IF(SUM(AB$29:AB44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <f>IF(AC$30&gt;=0.2*$A43,0,IF(SUM(AC$29:AC44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <f>IF(AD$30&gt;=0.2*$A43,0,IF(SUM(AD$29:AD44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <f>IF(AE$30&gt;=0.2*$A43,0,IF(SUM(AE$29:AE44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <f>IF(AF$30&gt;=0.2*$A43,0,IF(SUM(AF$29:AF44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="3">
+        <f>IF(AG$30&gt;=0.2*$A43,0,IF(SUM(AG$29:AG44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3">
+        <f>IF(AH$30&gt;=0.2*$A43,0,IF(SUM(AH$29:AH44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <f>IF(AI$30&gt;=0.2*$A43,0,IF(SUM(AI$29:AI44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A43,0,IF(SUM(AJ$29:AJ44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3">
+        <f>IF(AK$30&gt;=0.2*$A43,0,IF(SUM(AK$29:AK44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="3">
+        <f>IF(AL$30&gt;=0.2*$A43,0,IF(SUM(AL$29:AL44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="3">
+        <f>IF(AM$30&gt;=0.2*$A43,0,IF(SUM(AM$29:AM44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3">
+        <f>IF(AN$30&gt;=0.2*$A43,0,IF(SUM(AN$29:AN44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="3">
+        <f>IF(AO$30&gt;=0.2*$A43,0,IF(SUM(AO$29:AO44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="3">
+        <f>IF(AP$30&gt;=0.2*$A43,0,IF(SUM(AP$29:AP44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A43,0,IF(SUM(AQ$29:AQ44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR43" s="3">
+        <f>IF(AR$30&gt;=0.2*$A43,0,IF(SUM(AR$29:AR44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS43" s="3">
+        <f>IF(AS$30&gt;=0.2*$A43,0,IF(SUM(AS$29:AS44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="3">
+        <f>IF(AT$30&gt;=0.2*$A43,0,IF(SUM(AT$29:AT44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU43" s="3">
+        <f>IF(AU$30&gt;=0.2*$A43,0,IF(SUM(AU$29:AU44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV43" s="3">
+        <f>IF(AV$30&gt;=0.2*$A43,0,IF(SUM(AV$29:AV44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW43" s="3">
+        <f>IF(AW$30&gt;=0.2*$A43,0,IF(SUM(AW$29:AW44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX43" s="3">
+        <f>IF(AX$30&gt;=0.2*$A43,0,IF(SUM(AX$29:AX44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY43" s="3">
+        <f>IF(AY$30&gt;=0.2*$A43,0,IF(SUM(AY$29:AY44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A43,0,IF(SUM(AZ$29:AZ44)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA43" s="3">
+        <f ca="1">IF(BA$30&gt;=0.2*$A43,0,IF(SUM(BA$29:BA44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BB43" s="3">
+        <f ca="1">IF(BB$30&gt;=0.2*$A43,0,IF(SUM(BB$29:BB44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BC43" s="3">
+        <f ca="1">IF(BC$30&gt;=0.2*$A43,0,IF(SUM(BC$29:BC44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BD43" s="3">
+        <f ca="1">IF(BD$30&gt;=0.2*$A43,0,IF(SUM(BD$29:BD44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BE43" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A43,0,IF(SUM(BE$29:BE44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF43" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A43,0,IF(SUM(BF$29:BF44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG43" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A43,0,IF(SUM(BG$29:BG44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH43" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A43,0,IF(SUM(BH$29:BH44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI43" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A43,0,IF(SUM(BI$29:BI44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ43" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A43,0,IF(SUM(BJ$29:BJ44)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3">
+        <f ca="1">IF(B$30&gt;=0.2*$A44,0,IF(SUM(B$29:B45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <f ca="1">IF(C$30&gt;=0.2*$A44,0,IF(SUM(C$29:C45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <f ca="1">IF(D$30&gt;=0.2*$A44,0,IF(SUM(D$29:D45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <f ca="1">IF(E$30&gt;=0.2*$A44,0,IF(SUM(E$29:E45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <f ca="1">IF(F$30&gt;=0.2*$A44,0,IF(SUM(F$29:F45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <f ca="1">IF(G$30&gt;=0.2*$A44,0,IF(SUM(G$29:G45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <f>IF(H$30&gt;=0.2*$A44,0,IF(SUM(H$29:H45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <f>IF(I$30&gt;=0.2*$A44,0,IF(SUM(I$29:I45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f>IF(J$30&gt;=0.2*$A44,0,IF(SUM(J$29:J45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f>IF(K$30&gt;=0.2*$A44,0,IF(SUM(K$29:K45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <f>IF(L$30&gt;=0.2*$A44,0,IF(SUM(L$29:L45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <f>IF(M$30&gt;=0.2*$A44,0,IF(SUM(M$29:M45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <f>IF(N$30&gt;=0.2*$A44,0,IF(SUM(N$29:N45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <f>IF(O$30&gt;=0.2*$A44,0,IF(SUM(O$29:O45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <f>IF(P$30&gt;=0.2*$A44,0,IF(SUM(P$29:P45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>IF(Q$30&gt;=0.2*$A44,0,IF(SUM(Q$29:Q45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <f>IF(R$30&gt;=0.2*$A44,0,IF(SUM(R$29:R45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <f>IF(S$30&gt;=0.2*$A44,0,IF(SUM(S$29:S45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <f>IF(T$30&gt;=0.2*$A44,0,IF(SUM(T$29:T45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <f>IF(U$30&gt;=0.2*$A44,0,IF(SUM(U$29:U45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <f>IF(V$30&gt;=0.2*$A44,0,IF(SUM(V$29:V45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <f>IF(W$30&gt;=0.2*$A44,0,IF(SUM(W$29:W45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <f>IF(X$30&gt;=0.2*$A44,0,IF(SUM(X$29:X45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <f>IF(Y$30&gt;=0.2*$A44,0,IF(SUM(Y$29:Y45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <f>IF(Z$30&gt;=0.2*$A44,0,IF(SUM(Z$29:Z45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <f>IF(AA$30&gt;=0.2*$A44,0,IF(SUM(AA$29:AA45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <f>IF(AB$30&gt;=0.2*$A44,0,IF(SUM(AB$29:AB45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <f>IF(AC$30&gt;=0.2*$A44,0,IF(SUM(AC$29:AC45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <f>IF(AD$30&gt;=0.2*$A44,0,IF(SUM(AD$29:AD45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <f>IF(AE$30&gt;=0.2*$A44,0,IF(SUM(AE$29:AE45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <f>IF(AF$30&gt;=0.2*$A44,0,IF(SUM(AF$29:AF45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3">
+        <f>IF(AG$30&gt;=0.2*$A44,0,IF(SUM(AG$29:AG45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3">
+        <f>IF(AH$30&gt;=0.2*$A44,0,IF(SUM(AH$29:AH45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <f>IF(AI$30&gt;=0.2*$A44,0,IF(SUM(AI$29:AI45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="3">
+        <f>IF(AJ$30&gt;=0.2*$A44,0,IF(SUM(AJ$29:AJ45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3">
+        <f>IF(AK$30&gt;=0.2*$A44,0,IF(SUM(AK$29:AK45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3">
+        <f>IF(AL$30&gt;=0.2*$A44,0,IF(SUM(AL$29:AL45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="3">
+        <f>IF(AM$30&gt;=0.2*$A44,0,IF(SUM(AM$29:AM45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3">
+        <f>IF(AN$30&gt;=0.2*$A44,0,IF(SUM(AN$29:AN45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="3">
+        <f>IF(AO$30&gt;=0.2*$A44,0,IF(SUM(AO$29:AO45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="3">
+        <f>IF(AP$30&gt;=0.2*$A44,0,IF(SUM(AP$29:AP45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="3">
+        <f>IF(AQ$30&gt;=0.2*$A44,0,IF(SUM(AQ$29:AQ45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AR44" s="3">
+        <f>IF(AR$30&gt;=0.2*$A44,0,IF(SUM(AR$29:AR45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AS44" s="3">
+        <f>IF(AS$30&gt;=0.2*$A44,0,IF(SUM(AS$29:AS45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AT44" s="3">
+        <f>IF(AT$30&gt;=0.2*$A44,0,IF(SUM(AT$29:AT45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AU44" s="3">
+        <f>IF(AU$30&gt;=0.2*$A44,0,IF(SUM(AU$29:AU45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AV44" s="3">
+        <f>IF(AV$30&gt;=0.2*$A44,0,IF(SUM(AV$29:AV45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AW44" s="3">
+        <f>IF(AW$30&gt;=0.2*$A44,0,IF(SUM(AW$29:AW45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AX44" s="3">
+        <f>IF(AX$30&gt;=0.2*$A44,0,IF(SUM(AX$29:AX45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AY44" s="3">
+        <f>IF(AY$30&gt;=0.2*$A44,0,IF(SUM(AY$29:AY45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="3">
+        <f>IF(AZ$30&gt;=0.2*$A44,0,IF(SUM(AZ$29:AZ45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BA44" s="3">
+        <f>IF(BA$30&gt;=0.2*$A44,0,IF(SUM(BA$29:BA45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BB44" s="3">
+        <f>IF(BB$30&gt;=0.2*$A44,0,IF(SUM(BB$29:BB45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BC44" s="3">
+        <f>IF(BC$30&gt;=0.2*$A44,0,IF(SUM(BC$29:BC45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BD44" s="3">
+        <f>IF(BD$30&gt;=0.2*$A44,0,IF(SUM(BD$29:BD45)=5,0,1))</f>
+        <v>0</v>
+      </c>
+      <c r="BE44" s="3">
+        <f ca="1">IF(BE$30&gt;=0.2*$A44,0,IF(SUM(BE$29:BE45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BF44" s="3">
+        <f ca="1">IF(BF$30&gt;=0.2*$A44,0,IF(SUM(BF$29:BF45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BG44" s="3">
+        <f ca="1">IF(BG$30&gt;=0.2*$A44,0,IF(SUM(BG$29:BG45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BH44" s="3">
+        <f ca="1">IF(BH$30&gt;=0.2*$A44,0,IF(SUM(BH$29:BH45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BI44" s="3">
+        <f ca="1">IF(BI$30&gt;=0.2*$A44,0,IF(SUM(BI$29:BI45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="BJ44" s="3">
+        <f ca="1">IF(BJ$30&gt;=0.2*$A44,0,IF(SUM(BJ$29:BJ45)=5,0,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3">
+        <f t="shared" ref="B45:BJ45" si="1">IF(B$30&gt;=0.2*$A45,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BI45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BJ45" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <f>B30</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" ref="C46:BJ46" si="2">C30</f>
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="O46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="P46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="R46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="S46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="T46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="V46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="X46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="Y46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AD46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AE46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AF46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AH46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AI46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AK46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AL46" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AM46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AN46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AO46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AP46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AQ46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AR46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AS46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AT46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AU46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AV46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AW46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AX46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="AY46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="AZ46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="BA46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="BB46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="BC46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="BD46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="BE46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="BF46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="BG46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="BH46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="BI46" s="4">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="BJ46" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A33:D33"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B29:BJ29">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:BJ28">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:BJ45">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:BJ44">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
